--- a/TCS - Full Stack MEAN Developer - Schedule - July 2021.xlsx
+++ b/TCS - Full Stack MEAN Developer - Schedule - July 2021.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahul.m\Downloads\Accounts\TCS\MEAN Stack\Batch 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91990\Desktop\TCS MEAN Stack Training 2021\Notes\MyRepository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2442976-8A23-4FC6-B2AF-DBB4516227AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Phase 1" sheetId="1" r:id="rId1"/>
@@ -748,7 +747,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d&quot;-&quot;mmm&quot;-&quot;yyyy"/>
   </numFmts>
@@ -1620,21 +1619,117 @@
     <xf numFmtId="0" fontId="8" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1647,93 +1742,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1749,20 +1757,14 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1773,12 +1775,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1788,7 +1797,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1815,26 +1823,56 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1849,45 +1887,6 @@
     <xf numFmtId="0" fontId="21" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1897,6 +1896,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1921,16 +1930,24 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1943,15 +1960,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1962,21 +1970,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{24EBDB40-7EB3-48C6-9BE3-C158EF544F50}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2188,7 +2187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2198,55 +2197,55 @@
       <selection activeCell="F43" sqref="F43:F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="34" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" style="34" customWidth="1"/>
     <col min="3" max="3" width="46" style="34" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="34" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="34" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="34" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="34" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="34" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="34"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="34" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="34" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="34" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" style="34" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="34"/>
+    <col min="11" max="11" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="112" t="s">
+    <row r="1" spans="1:23" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="108" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="114"/>
-    </row>
-    <row r="2" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="118" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="110"/>
+    </row>
+    <row r="2" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="114" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="120"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="116"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="106"/>
+      <c r="C3" s="126"/>
       <c r="D3" s="42" t="s">
         <v>2</v>
       </c>
@@ -2270,14 +2269,14 @@
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
     </row>
-    <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="108"/>
+      <c r="C4" s="128"/>
       <c r="D4" s="10">
         <v>3</v>
       </c>
@@ -2301,14 +2300,14 @@
       <c r="V4" s="15"/>
       <c r="W4" s="15"/>
     </row>
-    <row r="5" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="129" t="s">
         <v>183</v>
       </c>
-      <c r="C5" s="110"/>
+      <c r="C5" s="130"/>
       <c r="D5" s="10">
         <v>17</v>
       </c>
@@ -2332,21 +2331,21 @@
       <c r="V5" s="15"/>
       <c r="W5" s="15"/>
     </row>
-    <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="121" t="s">
+    <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="118" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="123"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="120"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:23" s="28" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" s="28" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>0</v>
       </c>
@@ -2389,769 +2388,769 @@
       <c r="V7" s="32"/>
       <c r="W7" s="32"/>
     </row>
-    <row r="8" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="124" t="s">
+    <row r="8" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="117" t="s">
+      <c r="B8" s="112" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="115">
+      <c r="D8" s="100">
         <v>3.5</v>
       </c>
-      <c r="E8" s="115">
+      <c r="E8" s="100">
         <v>1</v>
       </c>
-      <c r="F8" s="116">
+      <c r="F8" s="101">
         <v>44403</v>
       </c>
-      <c r="G8" s="100" t="s">
+      <c r="G8" s="111" t="s">
         <v>186</v>
       </c>
-      <c r="H8" s="115" t="s">
+      <c r="H8" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="98">
+      <c r="I8" s="117">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="125"/>
-      <c r="B9" s="99"/>
+    <row r="9" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="122"/>
+      <c r="B9" s="113"/>
       <c r="C9" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="99"/>
-    </row>
-    <row r="10" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="125"/>
-      <c r="B10" s="99"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="113"/>
+    </row>
+    <row r="10" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="122"/>
+      <c r="B10" s="113"/>
       <c r="C10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="99"/>
-    </row>
-    <row r="11" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="125"/>
-      <c r="B11" s="99"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="113"/>
+    </row>
+    <row r="11" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="122"/>
+      <c r="B11" s="113"/>
       <c r="C11" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="99"/>
-    </row>
-    <row r="12" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="125"/>
-      <c r="B12" s="99"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="113"/>
+    </row>
+    <row r="12" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="122"/>
+      <c r="B12" s="113"/>
       <c r="C12" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="99"/>
-    </row>
-    <row r="13" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="125"/>
-      <c r="B13" s="99"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="113"/>
+    </row>
+    <row r="13" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="122"/>
+      <c r="B13" s="113"/>
       <c r="C13" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="100" t="s">
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="111" t="s">
         <v>186</v>
       </c>
-      <c r="H13" s="115"/>
-      <c r="I13" s="99"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="113"/>
       <c r="J13" s="33"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="100" t="s">
+    <row r="14" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="100" t="s">
+      <c r="B14" s="111" t="s">
         <v>161</v>
       </c>
       <c r="C14" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="D14" s="100">
+      <c r="D14" s="111">
         <v>3.5</v>
       </c>
-      <c r="E14" s="100">
+      <c r="E14" s="111">
         <v>2</v>
       </c>
-      <c r="F14" s="101">
+      <c r="F14" s="133">
         <v>44404</v>
       </c>
-      <c r="G14" s="102" t="s">
+      <c r="G14" s="134" t="s">
         <v>187</v>
       </c>
-      <c r="H14" s="139" t="s">
+      <c r="H14" s="105" t="s">
         <v>183</v>
       </c>
-      <c r="I14" s="99"/>
+      <c r="I14" s="113"/>
       <c r="J14" s="33"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="100"/>
-      <c r="B15" s="100"/>
+    <row r="15" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="111"/>
+      <c r="B15" s="111"/>
       <c r="C15" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="140"/>
-      <c r="I15" s="99"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="113"/>
       <c r="J15" s="33"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="100"/>
-      <c r="B16" s="100"/>
+    <row r="16" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="111"/>
+      <c r="B16" s="111"/>
       <c r="C16" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="140"/>
-      <c r="I16" s="99"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="113"/>
       <c r="J16" s="33"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="100"/>
-      <c r="B17" s="100"/>
+    <row r="17" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="111"/>
+      <c r="B17" s="111"/>
       <c r="C17" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="140"/>
-      <c r="I17" s="99"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="113"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="100"/>
-      <c r="B18" s="100"/>
+    <row r="18" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="111"/>
+      <c r="B18" s="111"/>
       <c r="C18" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="99"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="113"/>
       <c r="J18" s="33"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="100"/>
-      <c r="B19" s="100"/>
+    <row r="19" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="111"/>
+      <c r="B19" s="111"/>
       <c r="C19" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100">
+      <c r="D19" s="111"/>
+      <c r="E19" s="111">
         <v>3</v>
       </c>
-      <c r="F19" s="100">
+      <c r="F19" s="111">
         <v>44263</v>
       </c>
-      <c r="G19" s="100" t="s">
+      <c r="G19" s="111" t="s">
         <v>186</v>
       </c>
-      <c r="H19" s="140"/>
-      <c r="I19" s="99"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="113"/>
       <c r="J19" s="33"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="100"/>
-      <c r="B20" s="100"/>
+    <row r="20" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="111"/>
+      <c r="B20" s="111"/>
       <c r="C20" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="D20" s="100">
+      <c r="D20" s="111">
         <v>3.5</v>
       </c>
-      <c r="E20" s="100">
+      <c r="E20" s="111">
         <v>3</v>
       </c>
-      <c r="F20" s="101">
+      <c r="F20" s="133">
         <v>44405</v>
       </c>
-      <c r="G20" s="102" t="s">
+      <c r="G20" s="134" t="s">
         <v>188</v>
       </c>
-      <c r="H20" s="140"/>
-      <c r="I20" s="99"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="113"/>
       <c r="J20" s="33"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="100"/>
-      <c r="B21" s="100"/>
+    <row r="21" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="111"/>
+      <c r="B21" s="111"/>
       <c r="C21" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="99"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="113"/>
       <c r="J21" s="33"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="100"/>
-      <c r="B22" s="100"/>
+    <row r="22" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="111"/>
+      <c r="B22" s="111"/>
       <c r="C22" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="140"/>
-      <c r="I22" s="99"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="113"/>
       <c r="J22" s="33"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="100"/>
-      <c r="B23" s="100"/>
+    <row r="23" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="111"/>
+      <c r="B23" s="111"/>
       <c r="C23" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="140"/>
-      <c r="I23" s="99"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="113"/>
       <c r="J23" s="33"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="100"/>
-      <c r="B24" s="100"/>
+    <row r="24" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="111"/>
+      <c r="B24" s="111"/>
       <c r="C24" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="140"/>
-      <c r="I24" s="99"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="113"/>
       <c r="J24" s="33"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" s="34" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="100"/>
-      <c r="B25" s="100"/>
+    <row r="25" spans="1:11" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="111"/>
+      <c r="B25" s="111"/>
       <c r="C25" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="D25" s="100"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="100"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="140"/>
-      <c r="I25" s="99"/>
-    </row>
-    <row r="26" spans="1:11" s="34" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="100"/>
-      <c r="B26" s="100"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="113"/>
+    </row>
+    <row r="26" spans="1:11" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="111"/>
+      <c r="B26" s="111"/>
       <c r="C26" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="99"/>
-    </row>
-    <row r="27" spans="1:11" s="34" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="100"/>
-      <c r="B27" s="100"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="113"/>
+    </row>
+    <row r="27" spans="1:11" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="111"/>
+      <c r="B27" s="111"/>
       <c r="C27" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="D27" s="100"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="100"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="140"/>
-      <c r="I27" s="99"/>
-    </row>
-    <row r="28" spans="1:11" s="34" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="100"/>
-      <c r="B28" s="100"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="113"/>
+    </row>
+    <row r="28" spans="1:11" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="111"/>
+      <c r="B28" s="111"/>
       <c r="C28" s="56" t="s">
         <v>212</v>
       </c>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="100"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="99"/>
-    </row>
-    <row r="29" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="137" t="s">
+      <c r="D28" s="111"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="111"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="113"/>
+    </row>
+    <row r="29" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="98" t="s">
+      <c r="B29" s="117" t="s">
         <v>18</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="115">
+      <c r="D29" s="100">
         <v>3.5</v>
       </c>
-      <c r="E29" s="115">
+      <c r="E29" s="100">
         <v>4</v>
       </c>
-      <c r="F29" s="116">
+      <c r="F29" s="101">
         <v>44406</v>
       </c>
-      <c r="G29" s="126" t="s">
+      <c r="G29" s="123" t="s">
         <v>189</v>
       </c>
-      <c r="H29" s="140"/>
-      <c r="I29" s="99"/>
-    </row>
-    <row r="30" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="138"/>
-      <c r="B30" s="99"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="113"/>
+    </row>
+    <row r="30" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="141"/>
+      <c r="B30" s="113"/>
       <c r="C30" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="115"/>
-      <c r="H30" s="140"/>
-      <c r="I30" s="99"/>
-    </row>
-    <row r="31" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="138"/>
-      <c r="B31" s="99"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="113"/>
+    </row>
+    <row r="31" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="141"/>
+      <c r="B31" s="113"/>
       <c r="C31" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="115"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="115"/>
-      <c r="H31" s="140"/>
-      <c r="I31" s="99"/>
-    </row>
-    <row r="32" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="138"/>
-      <c r="B32" s="99"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="113"/>
+    </row>
+    <row r="32" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="141"/>
+      <c r="B32" s="113"/>
       <c r="C32" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="115"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="140"/>
-      <c r="I32" s="99"/>
-    </row>
-    <row r="33" spans="1:9" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="138"/>
-      <c r="B33" s="99"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="113"/>
+    </row>
+    <row r="33" spans="1:9" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="141"/>
+      <c r="B33" s="113"/>
       <c r="C33" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="115"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="140"/>
-      <c r="I33" s="99"/>
-    </row>
-    <row r="34" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="138"/>
-      <c r="B34" s="99"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="106"/>
+      <c r="I33" s="113"/>
+    </row>
+    <row r="34" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="141"/>
+      <c r="B34" s="113"/>
       <c r="C34" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="D34" s="111">
+      <c r="D34" s="99">
         <v>3.5</v>
       </c>
-      <c r="E34" s="111">
+      <c r="E34" s="99">
         <v>5</v>
       </c>
-      <c r="F34" s="127">
+      <c r="F34" s="124">
         <v>44407</v>
       </c>
-      <c r="G34" s="111" t="s">
+      <c r="G34" s="99" t="s">
         <v>190</v>
       </c>
-      <c r="H34" s="140"/>
-      <c r="I34" s="99"/>
-    </row>
-    <row r="35" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="138"/>
-      <c r="B35" s="99"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="113"/>
+    </row>
+    <row r="35" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="141"/>
+      <c r="B35" s="113"/>
       <c r="C35" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="111"/>
-      <c r="E35" s="111">
+      <c r="D35" s="99"/>
+      <c r="E35" s="99">
         <v>5</v>
       </c>
-      <c r="F35" s="111"/>
-      <c r="G35" s="111"/>
-      <c r="H35" s="140"/>
-      <c r="I35" s="99"/>
-    </row>
-    <row r="36" spans="1:9" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="138"/>
-      <c r="B36" s="99"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="106"/>
+      <c r="I35" s="113"/>
+    </row>
+    <row r="36" spans="1:9" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="141"/>
+      <c r="B36" s="113"/>
       <c r="C36" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="111"/>
-      <c r="E36" s="111"/>
-      <c r="F36" s="111"/>
-      <c r="G36" s="111"/>
-      <c r="H36" s="140"/>
-      <c r="I36" s="99"/>
-    </row>
-    <row r="37" spans="1:9" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="138"/>
-      <c r="B37" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="106"/>
+      <c r="I36" s="113"/>
+    </row>
+    <row r="37" spans="1:9" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="141"/>
+      <c r="B37" s="113"/>
       <c r="C37" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="111"/>
-      <c r="E37" s="111"/>
-      <c r="F37" s="111"/>
-      <c r="G37" s="111"/>
-      <c r="H37" s="140"/>
-      <c r="I37" s="99"/>
-    </row>
-    <row r="38" spans="1:9" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="138"/>
-      <c r="B38" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="106"/>
+      <c r="I37" s="113"/>
+    </row>
+    <row r="38" spans="1:9" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="141"/>
+      <c r="B38" s="113"/>
       <c r="C38" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="128">
+      <c r="D38" s="96">
         <v>3.5</v>
       </c>
-      <c r="E38" s="128">
+      <c r="E38" s="96">
         <v>6</v>
       </c>
-      <c r="F38" s="131">
+      <c r="F38" s="102">
         <v>44410</v>
       </c>
-      <c r="G38" s="128" t="s">
+      <c r="G38" s="96" t="s">
         <v>186</v>
       </c>
-      <c r="H38" s="140"/>
-      <c r="I38" s="128">
+      <c r="H38" s="106"/>
+      <c r="I38" s="96">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="138"/>
-      <c r="B39" s="99"/>
+    <row r="39" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="141"/>
+      <c r="B39" s="113"/>
       <c r="C39" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="D39" s="129"/>
-      <c r="E39" s="129"/>
-      <c r="F39" s="132"/>
-      <c r="G39" s="129"/>
-      <c r="H39" s="140"/>
-      <c r="I39" s="129"/>
-    </row>
-    <row r="40" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="138"/>
-      <c r="B40" s="99"/>
+      <c r="D39" s="97"/>
+      <c r="E39" s="97"/>
+      <c r="F39" s="103"/>
+      <c r="G39" s="97"/>
+      <c r="H39" s="106"/>
+      <c r="I39" s="97"/>
+    </row>
+    <row r="40" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="141"/>
+      <c r="B40" s="113"/>
       <c r="C40" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="129"/>
-      <c r="E40" s="129"/>
-      <c r="F40" s="132"/>
-      <c r="G40" s="129"/>
-      <c r="H40" s="140"/>
-      <c r="I40" s="129"/>
-    </row>
-    <row r="41" spans="1:9" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="138"/>
-      <c r="B41" s="99"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="97"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="106"/>
+      <c r="I40" s="97"/>
+    </row>
+    <row r="41" spans="1:9" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="141"/>
+      <c r="B41" s="113"/>
       <c r="C41" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="129"/>
-      <c r="E41" s="129"/>
-      <c r="F41" s="132"/>
-      <c r="G41" s="129"/>
-      <c r="H41" s="140"/>
-      <c r="I41" s="129"/>
-    </row>
-    <row r="42" spans="1:9" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="138"/>
-      <c r="B42" s="99"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="97"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="97"/>
+      <c r="H41" s="106"/>
+      <c r="I41" s="97"/>
+    </row>
+    <row r="42" spans="1:9" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="141"/>
+      <c r="B42" s="113"/>
       <c r="C42" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="D42" s="130"/>
-      <c r="E42" s="130"/>
-      <c r="F42" s="133"/>
-      <c r="G42" s="130"/>
-      <c r="H42" s="141"/>
-      <c r="I42" s="129"/>
-    </row>
-    <row r="43" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="134" t="s">
+      <c r="D42" s="98"/>
+      <c r="E42" s="98"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="98"/>
+      <c r="H42" s="107"/>
+      <c r="I42" s="97"/>
+    </row>
+    <row r="43" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="103" t="s">
+      <c r="B43" s="135" t="s">
         <v>30</v>
       </c>
       <c r="C43" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="D43" s="128">
+      <c r="D43" s="96">
         <v>3.5</v>
       </c>
-      <c r="E43" s="128">
+      <c r="E43" s="96">
         <v>7</v>
       </c>
-      <c r="F43" s="131">
+      <c r="F43" s="102">
         <v>44411</v>
       </c>
-      <c r="G43" s="128" t="s">
+      <c r="G43" s="96" t="s">
         <v>187</v>
       </c>
-      <c r="H43" s="111"/>
-      <c r="I43" s="129"/>
-    </row>
-    <row r="44" spans="1:9" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="135"/>
-      <c r="B44" s="104"/>
+      <c r="H43" s="99"/>
+      <c r="I43" s="97"/>
+    </row>
+    <row r="44" spans="1:9" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="138"/>
+      <c r="B44" s="136"/>
       <c r="C44" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="129"/>
-      <c r="E44" s="129"/>
-      <c r="F44" s="132"/>
-      <c r="G44" s="129"/>
-      <c r="H44" s="111"/>
-      <c r="I44" s="129"/>
-    </row>
-    <row r="45" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="135"/>
-      <c r="B45" s="104"/>
+      <c r="D44" s="97"/>
+      <c r="E44" s="97"/>
+      <c r="F44" s="103"/>
+      <c r="G44" s="97"/>
+      <c r="H44" s="99"/>
+      <c r="I44" s="97"/>
+    </row>
+    <row r="45" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="138"/>
+      <c r="B45" s="136"/>
       <c r="C45" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D45" s="129"/>
-      <c r="E45" s="129"/>
-      <c r="F45" s="132"/>
-      <c r="G45" s="129"/>
-      <c r="H45" s="111"/>
-      <c r="I45" s="129"/>
-    </row>
-    <row r="46" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="135"/>
-      <c r="B46" s="104"/>
+      <c r="D45" s="97"/>
+      <c r="E45" s="97"/>
+      <c r="F45" s="103"/>
+      <c r="G45" s="97"/>
+      <c r="H45" s="99"/>
+      <c r="I45" s="97"/>
+    </row>
+    <row r="46" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="138"/>
+      <c r="B46" s="136"/>
       <c r="C46" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D46" s="129"/>
-      <c r="E46" s="129"/>
-      <c r="F46" s="132"/>
-      <c r="G46" s="129"/>
-      <c r="H46" s="111"/>
-      <c r="I46" s="129"/>
-    </row>
-    <row r="47" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="135"/>
-      <c r="B47" s="104"/>
+      <c r="D46" s="97"/>
+      <c r="E46" s="97"/>
+      <c r="F46" s="103"/>
+      <c r="G46" s="97"/>
+      <c r="H46" s="99"/>
+      <c r="I46" s="97"/>
+    </row>
+    <row r="47" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="138"/>
+      <c r="B47" s="136"/>
       <c r="C47" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D47" s="129"/>
-      <c r="E47" s="129"/>
-      <c r="F47" s="132"/>
-      <c r="G47" s="129"/>
-      <c r="H47" s="111"/>
-      <c r="I47" s="129"/>
-    </row>
-    <row r="48" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="135"/>
-      <c r="B48" s="104"/>
+      <c r="D47" s="97"/>
+      <c r="E47" s="97"/>
+      <c r="F47" s="103"/>
+      <c r="G47" s="97"/>
+      <c r="H47" s="99"/>
+      <c r="I47" s="97"/>
+    </row>
+    <row r="48" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="138"/>
+      <c r="B48" s="136"/>
       <c r="C48" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D48" s="129"/>
-      <c r="E48" s="129"/>
-      <c r="F48" s="132"/>
-      <c r="G48" s="129"/>
-      <c r="H48" s="111"/>
-      <c r="I48" s="129"/>
-    </row>
-    <row r="49" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="135"/>
-      <c r="B49" s="104"/>
+      <c r="D48" s="97"/>
+      <c r="E48" s="97"/>
+      <c r="F48" s="103"/>
+      <c r="G48" s="97"/>
+      <c r="H48" s="99"/>
+      <c r="I48" s="97"/>
+    </row>
+    <row r="49" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="138"/>
+      <c r="B49" s="136"/>
       <c r="C49" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D49" s="129"/>
-      <c r="E49" s="129"/>
-      <c r="F49" s="132"/>
-      <c r="G49" s="129"/>
-      <c r="H49" s="111"/>
-      <c r="I49" s="129"/>
-    </row>
-    <row r="50" spans="1:11" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="135"/>
-      <c r="B50" s="104"/>
+      <c r="D49" s="97"/>
+      <c r="E49" s="97"/>
+      <c r="F49" s="103"/>
+      <c r="G49" s="97"/>
+      <c r="H49" s="99"/>
+      <c r="I49" s="97"/>
+    </row>
+    <row r="50" spans="1:11" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="138"/>
+      <c r="B50" s="136"/>
       <c r="C50" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="130"/>
-      <c r="E50" s="130"/>
-      <c r="F50" s="133"/>
-      <c r="G50" s="130"/>
-      <c r="H50" s="111"/>
-      <c r="I50" s="129"/>
-    </row>
-    <row r="51" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="135"/>
-      <c r="B51" s="104"/>
+      <c r="D50" s="98"/>
+      <c r="E50" s="98"/>
+      <c r="F50" s="104"/>
+      <c r="G50" s="98"/>
+      <c r="H50" s="99"/>
+      <c r="I50" s="97"/>
+    </row>
+    <row r="51" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="138"/>
+      <c r="B51" s="136"/>
       <c r="C51" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D51" s="128">
+      <c r="D51" s="96">
         <v>3.5</v>
       </c>
-      <c r="E51" s="128">
+      <c r="E51" s="96">
         <v>8</v>
       </c>
-      <c r="F51" s="131">
+      <c r="F51" s="102">
         <v>44412</v>
       </c>
-      <c r="G51" s="128" t="s">
+      <c r="G51" s="96" t="s">
         <v>188</v>
       </c>
-      <c r="H51" s="111"/>
-      <c r="I51" s="129"/>
-    </row>
-    <row r="52" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="135"/>
-      <c r="B52" s="104"/>
+      <c r="H51" s="99"/>
+      <c r="I51" s="97"/>
+    </row>
+    <row r="52" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="138"/>
+      <c r="B52" s="136"/>
       <c r="C52" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="129"/>
-      <c r="E52" s="129"/>
-      <c r="F52" s="132"/>
-      <c r="G52" s="129"/>
-      <c r="H52" s="111"/>
-      <c r="I52" s="129"/>
-    </row>
-    <row r="53" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="135"/>
-      <c r="B53" s="104"/>
+      <c r="D52" s="97"/>
+      <c r="E52" s="97"/>
+      <c r="F52" s="103"/>
+      <c r="G52" s="97"/>
+      <c r="H52" s="99"/>
+      <c r="I52" s="97"/>
+    </row>
+    <row r="53" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="138"/>
+      <c r="B53" s="136"/>
       <c r="C53" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D53" s="129"/>
-      <c r="E53" s="129"/>
-      <c r="F53" s="132"/>
-      <c r="G53" s="129"/>
-      <c r="H53" s="111"/>
-      <c r="I53" s="129"/>
-    </row>
-    <row r="54" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="135"/>
-      <c r="B54" s="104"/>
+      <c r="D53" s="97"/>
+      <c r="E53" s="97"/>
+      <c r="F53" s="103"/>
+      <c r="G53" s="97"/>
+      <c r="H53" s="99"/>
+      <c r="I53" s="97"/>
+    </row>
+    <row r="54" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="138"/>
+      <c r="B54" s="136"/>
       <c r="C54" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D54" s="129"/>
-      <c r="E54" s="129"/>
-      <c r="F54" s="132"/>
-      <c r="G54" s="129"/>
-      <c r="H54" s="111"/>
-      <c r="I54" s="129"/>
-    </row>
-    <row r="55" spans="1:11" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="135"/>
-      <c r="B55" s="104"/>
+      <c r="D54" s="97"/>
+      <c r="E54" s="97"/>
+      <c r="F54" s="103"/>
+      <c r="G54" s="97"/>
+      <c r="H54" s="99"/>
+      <c r="I54" s="97"/>
+    </row>
+    <row r="55" spans="1:11" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="138"/>
+      <c r="B55" s="136"/>
       <c r="C55" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D55" s="129"/>
-      <c r="E55" s="129"/>
-      <c r="F55" s="132"/>
-      <c r="G55" s="129"/>
-      <c r="H55" s="111"/>
-      <c r="I55" s="129"/>
-    </row>
-    <row r="56" spans="1:11" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="136"/>
-      <c r="B56" s="104"/>
+      <c r="D55" s="97"/>
+      <c r="E55" s="97"/>
+      <c r="F55" s="103"/>
+      <c r="G55" s="97"/>
+      <c r="H55" s="99"/>
+      <c r="I55" s="97"/>
+    </row>
+    <row r="56" spans="1:11" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="139"/>
+      <c r="B56" s="136"/>
       <c r="C56" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="D56" s="130"/>
-      <c r="E56" s="129"/>
-      <c r="F56" s="133"/>
-      <c r="G56" s="129"/>
-      <c r="H56" s="111"/>
-      <c r="I56" s="129"/>
-    </row>
-    <row r="57" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="96" t="s">
+      <c r="D56" s="98"/>
+      <c r="E56" s="97"/>
+      <c r="F56" s="104"/>
+      <c r="G56" s="97"/>
+      <c r="H56" s="99"/>
+      <c r="I56" s="97"/>
+    </row>
+    <row r="57" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="131" t="s">
         <v>139</v>
       </c>
-      <c r="B57" s="97"/>
+      <c r="B57" s="132"/>
       <c r="C57" s="21" t="s">
         <v>150</v>
       </c>
@@ -3164,12 +3163,48 @@
       <c r="F57" s="23"/>
       <c r="G57" s="22"/>
       <c r="H57" s="22"/>
-      <c r="I57" s="130"/>
+      <c r="I57" s="98"/>
       <c r="J57" s="33"/>
       <c r="K57" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="B29:B42"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="F14:F19"/>
+    <mergeCell ref="G14:G19"/>
+    <mergeCell ref="D20:D28"/>
+    <mergeCell ref="E20:E28"/>
+    <mergeCell ref="F20:F28"/>
+    <mergeCell ref="G20:G28"/>
+    <mergeCell ref="B43:B56"/>
+    <mergeCell ref="A43:A56"/>
+    <mergeCell ref="A29:A42"/>
+    <mergeCell ref="F43:F50"/>
+    <mergeCell ref="G43:G50"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B14:B28"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="E8:E13"/>
+    <mergeCell ref="F8:F13"/>
+    <mergeCell ref="G8:G13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="H8:H13"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="I8:I37"/>
+    <mergeCell ref="A14:A28"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="F34:F37"/>
     <mergeCell ref="I38:I57"/>
     <mergeCell ref="H43:H56"/>
     <mergeCell ref="D29:D33"/>
@@ -3186,42 +3221,6 @@
     <mergeCell ref="H14:H42"/>
     <mergeCell ref="D43:D50"/>
     <mergeCell ref="E43:E50"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="D8:D13"/>
-    <mergeCell ref="E8:E13"/>
-    <mergeCell ref="F8:F13"/>
-    <mergeCell ref="G8:G13"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="H8:H13"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="I8:I37"/>
-    <mergeCell ref="A14:A28"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B14:B28"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="B29:B42"/>
-    <mergeCell ref="E14:E19"/>
-    <mergeCell ref="F14:F19"/>
-    <mergeCell ref="G14:G19"/>
-    <mergeCell ref="D20:D28"/>
-    <mergeCell ref="E20:E28"/>
-    <mergeCell ref="F20:F28"/>
-    <mergeCell ref="G20:G28"/>
-    <mergeCell ref="B43:B56"/>
-    <mergeCell ref="A43:A56"/>
-    <mergeCell ref="A29:A42"/>
-    <mergeCell ref="F43:F50"/>
-    <mergeCell ref="G43:G50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3229,7 +3228,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -3239,53 +3238,53 @@
       <selection activeCell="F44" sqref="F44:F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="28" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" style="28" customWidth="1"/>
     <col min="3" max="3" width="52" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="25.42578125" style="34" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="25.44140625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="153" t="s">
+    <row r="1" spans="1:24" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="156" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="155"/>
-    </row>
-    <row r="2" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="118" t="s">
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="158"/>
+    </row>
+    <row r="2" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="114" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="163"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="166"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="164" t="s">
+      <c r="B3" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="165"/>
+      <c r="C3" s="168"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3310,14 +3309,14 @@
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
     </row>
-    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="166" t="s">
+      <c r="B4" s="169" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="165"/>
+      <c r="C4" s="168"/>
       <c r="D4" s="10">
         <v>2</v>
       </c>
@@ -3341,14 +3340,14 @@
       <c r="V4" s="15"/>
       <c r="W4" s="15"/>
     </row>
-    <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="B5" s="167" t="s">
+      <c r="B5" s="142" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="168"/>
+      <c r="C5" s="143"/>
       <c r="D5" s="10">
         <v>3</v>
       </c>
@@ -3372,14 +3371,14 @@
       <c r="V5" s="15"/>
       <c r="W5" s="15"/>
     </row>
-    <row r="6" spans="1:24" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="167" t="s">
+      <c r="B6" s="142" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="168"/>
+      <c r="C6" s="143"/>
       <c r="D6" s="10">
         <v>3</v>
       </c>
@@ -3403,14 +3402,14 @@
       <c r="V6" s="15"/>
       <c r="W6" s="15"/>
     </row>
-    <row r="7" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="166" t="s">
+      <c r="B7" s="169" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="165"/>
+      <c r="C7" s="168"/>
       <c r="D7" s="10">
         <v>4</v>
       </c>
@@ -3434,21 +3433,21 @@
       <c r="V7" s="15"/>
       <c r="W7" s="15"/>
     </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="156" t="s">
+    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="159" t="s">
         <v>138</v>
       </c>
-      <c r="B8" s="157"/>
-      <c r="C8" s="157"/>
-      <c r="D8" s="157"/>
-      <c r="E8" s="157"/>
-      <c r="F8" s="157"/>
-      <c r="G8" s="157"/>
-      <c r="H8" s="157"/>
-      <c r="I8" s="158"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="160"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="161"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>0</v>
       </c>
@@ -3492,693 +3491,693 @@
       <c r="W9" s="8"/>
       <c r="X9" s="8"/>
     </row>
-    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="159" t="s">
+    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="149" t="s">
+      <c r="B10" s="153" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="149">
+      <c r="D10" s="153">
         <v>3.5</v>
       </c>
-      <c r="E10" s="149">
+      <c r="E10" s="153">
         <v>10</v>
       </c>
-      <c r="F10" s="116">
+      <c r="F10" s="101">
         <v>44414</v>
       </c>
-      <c r="G10" s="126" t="s">
+      <c r="G10" s="123" t="s">
         <v>190</v>
       </c>
-      <c r="H10" s="117" t="s">
+      <c r="H10" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="144">
+      <c r="I10" s="145">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="160"/>
-      <c r="B11" s="150"/>
+    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="163"/>
+      <c r="B11" s="154"/>
       <c r="C11" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="149"/>
-      <c r="E11" s="149"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="145"/>
-    </row>
-    <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="160"/>
-      <c r="B12" s="150"/>
+      <c r="D11" s="153"/>
+      <c r="E11" s="153"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="170"/>
+      <c r="I11" s="146"/>
+    </row>
+    <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="163"/>
+      <c r="B12" s="154"/>
       <c r="C12" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="149"/>
-      <c r="E12" s="149"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="147"/>
-      <c r="I12" s="145"/>
-    </row>
-    <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="160"/>
-      <c r="B13" s="150"/>
+      <c r="D12" s="153"/>
+      <c r="E12" s="153"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="170"/>
+      <c r="I12" s="146"/>
+    </row>
+    <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="163"/>
+      <c r="B13" s="154"/>
       <c r="C13" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="149"/>
-      <c r="E13" s="149"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="145"/>
-    </row>
-    <row r="14" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="160"/>
-      <c r="B14" s="150"/>
+      <c r="D13" s="153"/>
+      <c r="E13" s="153"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="170"/>
+      <c r="I13" s="146"/>
+    </row>
+    <row r="14" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="163"/>
+      <c r="B14" s="154"/>
       <c r="C14" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="149"/>
-      <c r="E14" s="149"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="147"/>
-      <c r="I14" s="145"/>
-    </row>
-    <row r="15" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="160"/>
-      <c r="B15" s="150"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="170"/>
+      <c r="I14" s="146"/>
+    </row>
+    <row r="15" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="163"/>
+      <c r="B15" s="154"/>
       <c r="C15" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="149"/>
-      <c r="E15" s="149"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="148"/>
-      <c r="I15" s="145"/>
-    </row>
-    <row r="16" spans="1:24" s="34" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="160"/>
-      <c r="B16" s="150"/>
+      <c r="D15" s="153"/>
+      <c r="E15" s="153"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="171"/>
+      <c r="I15" s="146"/>
+    </row>
+    <row r="16" spans="1:24" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="163"/>
+      <c r="B16" s="154"/>
       <c r="C16" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="149"/>
-      <c r="E16" s="149"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="117" t="s">
+      <c r="D16" s="153"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="112" t="s">
         <v>163</v>
       </c>
-      <c r="I16" s="146"/>
-    </row>
-    <row r="17" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="160"/>
-      <c r="B17" s="150"/>
+      <c r="I16" s="147"/>
+    </row>
+    <row r="17" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="163"/>
+      <c r="B17" s="154"/>
       <c r="C17" s="59" t="s">
         <v>230</v>
       </c>
-      <c r="D17" s="115">
+      <c r="D17" s="100">
         <v>3.5</v>
       </c>
-      <c r="E17" s="115">
+      <c r="E17" s="100">
         <v>11</v>
       </c>
-      <c r="F17" s="116">
+      <c r="F17" s="101">
         <v>44417</v>
       </c>
-      <c r="G17" s="126" t="s">
+      <c r="G17" s="123" t="s">
         <v>186</v>
       </c>
-      <c r="H17" s="147"/>
-      <c r="I17" s="144">
+      <c r="H17" s="170"/>
+      <c r="I17" s="145">
         <v>3</v>
       </c>
       <c r="J17" s="33"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="160"/>
-      <c r="B18" s="150"/>
+    <row r="18" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="163"/>
+      <c r="B18" s="154"/>
       <c r="C18" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="147"/>
-      <c r="I18" s="145"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="170"/>
+      <c r="I18" s="146"/>
       <c r="J18" s="33"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" s="34" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="160"/>
-      <c r="B19" s="161"/>
+    <row r="19" spans="1:11" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="163"/>
+      <c r="B19" s="164"/>
       <c r="C19" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="147"/>
-      <c r="I19" s="145"/>
-    </row>
-    <row r="20" spans="1:11" s="34" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="160"/>
-      <c r="B20" s="161"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="170"/>
+      <c r="I19" s="146"/>
+    </row>
+    <row r="20" spans="1:11" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="163"/>
+      <c r="B20" s="164"/>
       <c r="C20" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="145"/>
-    </row>
-    <row r="21" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="151" t="s">
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="170"/>
+      <c r="I20" s="146"/>
+    </row>
+    <row r="21" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="149" t="s">
+      <c r="B21" s="153" t="s">
         <v>56</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="128">
+      <c r="D21" s="96">
         <v>3.5</v>
       </c>
-      <c r="E21" s="128">
+      <c r="E21" s="96">
         <v>12</v>
       </c>
-      <c r="F21" s="131">
+      <c r="F21" s="102">
         <v>44418</v>
       </c>
-      <c r="G21" s="128" t="s">
+      <c r="G21" s="96" t="s">
         <v>187</v>
       </c>
-      <c r="H21" s="148"/>
-      <c r="I21" s="145"/>
+      <c r="H21" s="171"/>
+      <c r="I21" s="146"/>
       <c r="J21" s="33"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A22" s="152"/>
-      <c r="B22" s="150"/>
+      <c r="B22" s="154"/>
       <c r="C22" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129">
+      <c r="D22" s="97"/>
+      <c r="E22" s="97">
         <v>12</v>
       </c>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129" t="s">
+      <c r="F22" s="97"/>
+      <c r="G22" s="97" t="s">
         <v>190</v>
       </c>
-      <c r="H22" s="170" t="s">
+      <c r="H22" s="148" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="145"/>
+      <c r="I22" s="146"/>
       <c r="J22" s="33"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A23" s="152"/>
-      <c r="B23" s="150"/>
+      <c r="B23" s="154"/>
       <c r="C23" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="129"/>
-      <c r="E23" s="129"/>
-      <c r="F23" s="129"/>
-      <c r="G23" s="129"/>
-      <c r="H23" s="171"/>
-      <c r="I23" s="145"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="149"/>
+      <c r="I23" s="146"/>
       <c r="J23" s="33"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A24" s="152"/>
-      <c r="B24" s="150"/>
+      <c r="B24" s="154"/>
       <c r="C24" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="129"/>
-      <c r="E24" s="129"/>
-      <c r="F24" s="129"/>
-      <c r="G24" s="129"/>
-      <c r="H24" s="171"/>
-      <c r="I24" s="145"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="146"/>
       <c r="J24" s="33"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" s="34" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A25" s="152"/>
-      <c r="B25" s="150"/>
+      <c r="B25" s="154"/>
       <c r="C25" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D25" s="130"/>
-      <c r="E25" s="130">
+      <c r="D25" s="98"/>
+      <c r="E25" s="98">
         <v>13</v>
       </c>
-      <c r="F25" s="130">
+      <c r="F25" s="98">
         <v>44277</v>
       </c>
-      <c r="G25" s="130" t="s">
+      <c r="G25" s="98" t="s">
         <v>186</v>
       </c>
-      <c r="H25" s="171"/>
-      <c r="I25" s="145"/>
-    </row>
-    <row r="26" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H25" s="149"/>
+      <c r="I25" s="146"/>
+    </row>
+    <row r="26" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A26" s="152"/>
-      <c r="B26" s="150"/>
+      <c r="B26" s="154"/>
       <c r="C26" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="128">
+      <c r="D26" s="96">
         <v>3.5</v>
       </c>
-      <c r="E26" s="128">
+      <c r="E26" s="96">
         <v>13</v>
       </c>
-      <c r="F26" s="131">
+      <c r="F26" s="102">
         <v>44419</v>
       </c>
-      <c r="G26" s="128" t="s">
+      <c r="G26" s="96" t="s">
         <v>188</v>
       </c>
-      <c r="H26" s="171"/>
-      <c r="I26" s="145"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="146"/>
       <c r="J26" s="33"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A27" s="152"/>
-      <c r="B27" s="150"/>
+      <c r="B27" s="154"/>
       <c r="C27" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="129"/>
-      <c r="E27" s="129">
+      <c r="D27" s="97"/>
+      <c r="E27" s="97">
         <v>13</v>
       </c>
-      <c r="F27" s="129"/>
-      <c r="G27" s="129" t="s">
+      <c r="F27" s="97"/>
+      <c r="G27" s="97" t="s">
         <v>186</v>
       </c>
-      <c r="H27" s="171"/>
-      <c r="I27" s="145"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="146"/>
       <c r="J27" s="33"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A28" s="152"/>
-      <c r="B28" s="150"/>
+      <c r="B28" s="154"/>
       <c r="C28" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="129"/>
-      <c r="E28" s="129">
+      <c r="D28" s="97"/>
+      <c r="E28" s="97">
         <v>13</v>
       </c>
-      <c r="F28" s="129"/>
-      <c r="G28" s="129" t="s">
+      <c r="F28" s="97"/>
+      <c r="G28" s="97" t="s">
         <v>188</v>
       </c>
-      <c r="H28" s="171"/>
-      <c r="I28" s="145"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="146"/>
       <c r="J28" s="33"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A29" s="152"/>
-      <c r="B29" s="150"/>
+      <c r="B29" s="154"/>
       <c r="C29" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="129"/>
-      <c r="E29" s="129"/>
-      <c r="F29" s="129"/>
-      <c r="G29" s="129"/>
-      <c r="H29" s="171"/>
-      <c r="I29" s="145"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="146"/>
       <c r="J29" s="33"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A30" s="152"/>
-      <c r="B30" s="150"/>
+      <c r="B30" s="154"/>
       <c r="C30" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="130"/>
-      <c r="E30" s="130">
+      <c r="D30" s="98"/>
+      <c r="E30" s="98">
         <v>14</v>
       </c>
-      <c r="F30" s="130">
+      <c r="F30" s="98">
         <v>44278</v>
       </c>
-      <c r="G30" s="130" t="s">
+      <c r="G30" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="H30" s="171"/>
-      <c r="I30" s="145"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="146"/>
       <c r="J30" s="33"/>
       <c r="K30" s="33"/>
     </row>
-    <row r="31" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A31" s="152"/>
-      <c r="B31" s="150"/>
+      <c r="B31" s="154"/>
       <c r="C31" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="128">
+      <c r="D31" s="96">
         <v>3.5</v>
       </c>
-      <c r="E31" s="128">
+      <c r="E31" s="96">
         <v>14</v>
       </c>
-      <c r="F31" s="131">
+      <c r="F31" s="102">
         <v>44420</v>
       </c>
-      <c r="G31" s="128" t="s">
+      <c r="G31" s="96" t="s">
         <v>189</v>
       </c>
-      <c r="H31" s="171"/>
-      <c r="I31" s="145"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="146"/>
       <c r="J31" s="33"/>
       <c r="K31" s="33"/>
     </row>
-    <row r="32" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A32" s="152"/>
-      <c r="B32" s="150"/>
+      <c r="B32" s="154"/>
       <c r="C32" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="129"/>
-      <c r="E32" s="129">
+      <c r="D32" s="97"/>
+      <c r="E32" s="97">
         <v>14</v>
       </c>
-      <c r="F32" s="129"/>
-      <c r="G32" s="129" t="s">
+      <c r="F32" s="97"/>
+      <c r="G32" s="97" t="s">
         <v>187</v>
       </c>
-      <c r="H32" s="172"/>
-      <c r="I32" s="145"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="146"/>
       <c r="J32" s="33"/>
       <c r="K32" s="33"/>
     </row>
-    <row r="33" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A33" s="152"/>
-      <c r="B33" s="150"/>
+      <c r="B33" s="154"/>
       <c r="C33" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="129"/>
-      <c r="E33" s="129">
+      <c r="D33" s="97"/>
+      <c r="E33" s="97">
         <v>14</v>
       </c>
-      <c r="F33" s="129"/>
-      <c r="G33" s="129" t="s">
+      <c r="F33" s="97"/>
+      <c r="G33" s="97" t="s">
         <v>189</v>
       </c>
-      <c r="H33" s="170" t="s">
+      <c r="H33" s="148" t="s">
         <v>45</v>
       </c>
-      <c r="I33" s="145"/>
+      <c r="I33" s="146"/>
       <c r="J33" s="33"/>
       <c r="K33" s="33"/>
     </row>
-    <row r="34" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A34" s="152"/>
-      <c r="B34" s="150"/>
+      <c r="B34" s="154"/>
       <c r="C34" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="129"/>
-      <c r="E34" s="129"/>
-      <c r="F34" s="129"/>
-      <c r="G34" s="129"/>
-      <c r="H34" s="171"/>
-      <c r="I34" s="145"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="97"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="146"/>
       <c r="J34" s="33"/>
       <c r="K34" s="33"/>
     </row>
-    <row r="35" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A35" s="152"/>
-      <c r="B35" s="150"/>
+      <c r="B35" s="154"/>
       <c r="C35" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="130"/>
-      <c r="E35" s="130"/>
-      <c r="F35" s="130"/>
-      <c r="G35" s="130"/>
-      <c r="H35" s="171"/>
-      <c r="I35" s="145"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="98"/>
+      <c r="G35" s="98"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="146"/>
       <c r="J35" s="33"/>
       <c r="K35" s="33"/>
     </row>
-    <row r="36" spans="1:11" s="34" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A36" s="152"/>
-      <c r="B36" s="150"/>
+      <c r="B36" s="154"/>
       <c r="C36" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="D36" s="128">
+      <c r="D36" s="96">
         <v>3.5</v>
       </c>
-      <c r="E36" s="128">
+      <c r="E36" s="96">
         <v>15</v>
       </c>
-      <c r="F36" s="131">
+      <c r="F36" s="102">
         <v>44421</v>
       </c>
-      <c r="G36" s="128" t="s">
+      <c r="G36" s="96" t="s">
         <v>190</v>
       </c>
-      <c r="H36" s="171"/>
-      <c r="I36" s="145"/>
-    </row>
-    <row r="37" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H36" s="149"/>
+      <c r="I36" s="146"/>
+    </row>
+    <row r="37" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A37" s="152"/>
-      <c r="B37" s="150"/>
+      <c r="B37" s="154"/>
       <c r="C37" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="129"/>
-      <c r="E37" s="129">
+      <c r="D37" s="97"/>
+      <c r="E37" s="97">
         <v>15</v>
       </c>
-      <c r="F37" s="129"/>
-      <c r="G37" s="129" t="s">
+      <c r="F37" s="97"/>
+      <c r="G37" s="97" t="s">
         <v>188</v>
       </c>
-      <c r="H37" s="171"/>
-      <c r="I37" s="145"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="146"/>
       <c r="J37" s="33"/>
       <c r="K37" s="33"/>
     </row>
-    <row r="38" spans="1:11" s="34" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="173" t="s">
+    <row r="38" spans="1:11" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="149" t="s">
+      <c r="B38" s="153" t="s">
         <v>71</v>
       </c>
       <c r="C38" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="D38" s="129"/>
-      <c r="E38" s="129">
+      <c r="D38" s="97"/>
+      <c r="E38" s="97">
         <v>15</v>
       </c>
-      <c r="F38" s="129"/>
-      <c r="G38" s="129" t="s">
+      <c r="F38" s="97"/>
+      <c r="G38" s="97" t="s">
         <v>190</v>
       </c>
-      <c r="H38" s="171"/>
-      <c r="I38" s="146"/>
-    </row>
-    <row r="39" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H38" s="149"/>
+      <c r="I38" s="147"/>
+    </row>
+    <row r="39" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A39" s="152"/>
-      <c r="B39" s="150"/>
+      <c r="B39" s="154"/>
       <c r="C39" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="130"/>
-      <c r="E39" s="130">
+      <c r="D39" s="98"/>
+      <c r="E39" s="98">
         <v>16</v>
       </c>
-      <c r="F39" s="130">
+      <c r="F39" s="98">
         <v>44280</v>
       </c>
-      <c r="G39" s="130" t="s">
+      <c r="G39" s="98" t="s">
         <v>189</v>
       </c>
-      <c r="H39" s="171"/>
-      <c r="I39" s="144">
+      <c r="H39" s="149"/>
+      <c r="I39" s="145">
         <v>4</v>
       </c>
       <c r="J39" s="33"/>
       <c r="K39" s="33"/>
     </row>
-    <row r="40" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A40" s="152"/>
-      <c r="B40" s="150"/>
+      <c r="B40" s="154"/>
       <c r="C40" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="98">
+      <c r="D40" s="117">
         <v>3.5</v>
       </c>
-      <c r="E40" s="98">
+      <c r="E40" s="117">
         <v>16</v>
       </c>
-      <c r="F40" s="143">
+      <c r="F40" s="173">
         <v>44424</v>
       </c>
-      <c r="G40" s="144" t="s">
+      <c r="G40" s="145" t="s">
         <v>186</v>
       </c>
-      <c r="H40" s="171"/>
-      <c r="I40" s="145"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="146"/>
       <c r="J40" s="33"/>
       <c r="K40" s="33"/>
     </row>
-    <row r="41" spans="1:11" s="34" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A41" s="152"/>
-      <c r="B41" s="150"/>
+      <c r="B41" s="154"/>
       <c r="C41" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="99"/>
-      <c r="E41" s="99"/>
-      <c r="F41" s="99"/>
-      <c r="G41" s="99"/>
-      <c r="H41" s="171"/>
-      <c r="I41" s="145"/>
-    </row>
-    <row r="42" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D41" s="113"/>
+      <c r="E41" s="113"/>
+      <c r="F41" s="113"/>
+      <c r="G41" s="113"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="146"/>
+    </row>
+    <row r="42" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A42" s="152"/>
-      <c r="B42" s="150"/>
+      <c r="B42" s="154"/>
       <c r="C42" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D42" s="99"/>
-      <c r="E42" s="99">
+      <c r="D42" s="113"/>
+      <c r="E42" s="113">
         <v>16</v>
       </c>
-      <c r="F42" s="99"/>
-      <c r="G42" s="99" t="s">
+      <c r="F42" s="113"/>
+      <c r="G42" s="113" t="s">
         <v>189</v>
       </c>
-      <c r="H42" s="171"/>
-      <c r="I42" s="145"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="146"/>
       <c r="J42" s="33"/>
       <c r="K42" s="33"/>
     </row>
-    <row r="43" spans="1:11" s="34" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A43" s="152"/>
-      <c r="B43" s="150"/>
+      <c r="B43" s="154"/>
       <c r="C43" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="142"/>
-      <c r="E43" s="142"/>
-      <c r="F43" s="142"/>
-      <c r="G43" s="142"/>
-      <c r="H43" s="171"/>
-      <c r="I43" s="145"/>
-    </row>
-    <row r="44" spans="1:11" s="34" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D43" s="172"/>
+      <c r="E43" s="172"/>
+      <c r="F43" s="172"/>
+      <c r="G43" s="172"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="146"/>
+    </row>
+    <row r="44" spans="1:11" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A44" s="152"/>
-      <c r="B44" s="150"/>
+      <c r="B44" s="154"/>
       <c r="C44" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D44" s="98">
+      <c r="D44" s="117">
         <v>3.5</v>
       </c>
-      <c r="E44" s="98">
+      <c r="E44" s="117">
         <v>17</v>
       </c>
-      <c r="F44" s="143">
+      <c r="F44" s="173">
         <v>44425</v>
       </c>
-      <c r="G44" s="144" t="s">
+      <c r="G44" s="145" t="s">
         <v>187</v>
       </c>
-      <c r="H44" s="171"/>
-      <c r="I44" s="145"/>
-    </row>
-    <row r="45" spans="1:11" s="34" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H44" s="149"/>
+      <c r="I44" s="146"/>
+    </row>
+    <row r="45" spans="1:11" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A45" s="152"/>
-      <c r="B45" s="150"/>
+      <c r="B45" s="154"/>
       <c r="C45" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="D45" s="99"/>
-      <c r="E45" s="99">
+      <c r="D45" s="113"/>
+      <c r="E45" s="113">
         <v>17</v>
       </c>
-      <c r="F45" s="99">
+      <c r="F45" s="113">
         <v>44281</v>
       </c>
-      <c r="G45" s="99" t="s">
+      <c r="G45" s="113" t="s">
         <v>190</v>
       </c>
-      <c r="H45" s="171"/>
-      <c r="I45" s="145"/>
-    </row>
-    <row r="46" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H45" s="149"/>
+      <c r="I45" s="146"/>
+    </row>
+    <row r="46" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A46" s="152"/>
-      <c r="B46" s="150"/>
+      <c r="B46" s="154"/>
       <c r="C46" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D46" s="99"/>
-      <c r="E46" s="99"/>
-      <c r="F46" s="99"/>
-      <c r="G46" s="99"/>
-      <c r="H46" s="171"/>
-      <c r="I46" s="145"/>
+      <c r="D46" s="113"/>
+      <c r="E46" s="113"/>
+      <c r="F46" s="113"/>
+      <c r="G46" s="113"/>
+      <c r="H46" s="149"/>
+      <c r="I46" s="146"/>
       <c r="J46" s="33"/>
       <c r="K46" s="33"/>
     </row>
-    <row r="47" spans="1:11" s="34" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A47" s="152"/>
-      <c r="B47" s="150"/>
+      <c r="B47" s="154"/>
       <c r="C47" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="D47" s="142"/>
-      <c r="E47" s="142"/>
-      <c r="F47" s="142"/>
-      <c r="G47" s="142"/>
-      <c r="H47" s="171"/>
-      <c r="I47" s="145"/>
-    </row>
-    <row r="48" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="169" t="s">
+      <c r="D47" s="172"/>
+      <c r="E47" s="172"/>
+      <c r="F47" s="172"/>
+      <c r="G47" s="172"/>
+      <c r="H47" s="149"/>
+      <c r="I47" s="146"/>
+    </row>
+    <row r="48" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="144" t="s">
         <v>139</v>
       </c>
-      <c r="B48" s="169"/>
+      <c r="B48" s="144"/>
       <c r="C48" s="21" t="s">
         <v>192</v>
       </c>
@@ -4191,15 +4190,15 @@
       <c r="F48" s="23"/>
       <c r="G48" s="22"/>
       <c r="H48" s="40"/>
-      <c r="I48" s="146"/>
+      <c r="I48" s="147"/>
       <c r="J48" s="33"/>
       <c r="K48" s="33"/>
     </row>
-    <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="169" t="s">
+    <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="144" t="s">
         <v>209</v>
       </c>
-      <c r="B50" s="169"/>
+      <c r="B50" s="144"/>
       <c r="C50" s="54" t="s">
         <v>210</v>
       </c>
@@ -4220,11 +4219,50 @@
       </c>
       <c r="I50" s="22"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D51" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="E31:E35"/>
+    <mergeCell ref="F31:F35"/>
+    <mergeCell ref="G31:G35"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="F44:F47"/>
+    <mergeCell ref="G44:G47"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="I10:I16"/>
+    <mergeCell ref="H10:H15"/>
+    <mergeCell ref="H16:H21"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="F26:F30"/>
+    <mergeCell ref="G26:G30"/>
+    <mergeCell ref="B21:B37"/>
+    <mergeCell ref="A21:A37"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="E10:E16"/>
+    <mergeCell ref="F10:F16"/>
+    <mergeCell ref="G10:G16"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A10:A20"/>
+    <mergeCell ref="B10:B20"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="I17:I38"/>
@@ -4241,45 +4279,6 @@
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A38:A47"/>
     <mergeCell ref="B38:B47"/>
-    <mergeCell ref="B21:B37"/>
-    <mergeCell ref="A21:A37"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="E10:E16"/>
-    <mergeCell ref="F10:F16"/>
-    <mergeCell ref="G10:G16"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A10:A20"/>
-    <mergeCell ref="B10:B20"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="I10:I16"/>
-    <mergeCell ref="H10:H15"/>
-    <mergeCell ref="H16:H21"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="F26:F30"/>
-    <mergeCell ref="G26:G30"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="E31:E35"/>
-    <mergeCell ref="F31:F35"/>
-    <mergeCell ref="G31:G35"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="F44:F47"/>
-    <mergeCell ref="G44:G47"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="F40:F43"/>
-    <mergeCell ref="G40:G43"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4288,62 +4287,62 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C0439A-F51F-494F-AE9A-FC29351BED23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X56"/>
   <sheetViews>
     <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="F46" sqref="F46:F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="18" customWidth="1"/>
     <col min="2" max="2" width="32" style="18" customWidth="1"/>
     <col min="3" max="3" width="54" style="18" customWidth="1"/>
     <col min="4" max="4" width="12" style="18" customWidth="1"/>
     <col min="5" max="5" width="10" style="18" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="18" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="18" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="18"/>
+    <col min="6" max="6" width="9.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="18" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" style="18" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="153" t="s">
+    <row r="1" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="156" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="175"/>
-    </row>
-    <row r="2" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="118" t="s">
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="190"/>
+    </row>
+    <row r="2" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="114" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="177"/>
+      <c r="B2" s="191"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="192"/>
       <c r="J2" s="72"/>
     </row>
-    <row r="3" spans="1:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="164" t="s">
+      <c r="B3" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="165"/>
+      <c r="C3" s="168"/>
       <c r="D3" s="42" t="s">
         <v>2</v>
       </c>
@@ -4368,22 +4367,22 @@
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
     </row>
-    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="178" t="s">
+      <c r="B4" s="193" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="179"/>
+      <c r="C4" s="194"/>
       <c r="D4" s="68">
         <v>2</v>
       </c>
-      <c r="E4" s="180" t="s">
+      <c r="E4" s="195" t="s">
         <v>229</v>
       </c>
-      <c r="F4" s="180"/>
-      <c r="G4" s="180"/>
+      <c r="F4" s="195"/>
+      <c r="G4" s="195"/>
       <c r="H4" s="12"/>
       <c r="I4" s="73"/>
       <c r="J4" s="74"/>
@@ -4401,14 +4400,14 @@
       <c r="V4" s="15"/>
       <c r="W4" s="15"/>
     </row>
-    <row r="5" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="127" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="165"/>
+      <c r="C5" s="168"/>
       <c r="D5" s="10">
         <v>3</v>
       </c>
@@ -4432,21 +4431,21 @@
       <c r="V5" s="15"/>
       <c r="W5" s="15"/>
     </row>
-    <row r="6" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="156" t="s">
+    <row r="6" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="159" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="181"/>
-      <c r="C6" s="181"/>
-      <c r="D6" s="181"/>
-      <c r="E6" s="181"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="181"/>
-      <c r="H6" s="181"/>
-      <c r="I6" s="182"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="179"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:24" s="76" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" s="76" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>0</v>
       </c>
@@ -4490,843 +4489,843 @@
       <c r="W7" s="32"/>
       <c r="X7" s="32"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="183" t="s">
+    <row r="8" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="184" t="s">
+      <c r="B8" s="181" t="s">
         <v>79</v>
       </c>
       <c r="C8" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="186">
+      <c r="D8" s="183">
         <v>3.5</v>
       </c>
-      <c r="E8" s="186">
+      <c r="E8" s="183">
         <v>18</v>
       </c>
-      <c r="F8" s="188">
+      <c r="F8" s="185">
         <v>44427</v>
       </c>
-      <c r="G8" s="186" t="s">
+      <c r="G8" s="183" t="s">
         <v>189</v>
       </c>
-      <c r="H8" s="189" t="s">
+      <c r="H8" s="186" t="s">
         <v>147</v>
       </c>
-      <c r="I8" s="190">
+      <c r="I8" s="187">
         <v>4</v>
       </c>
-      <c r="J8" s="194" t="s">
+      <c r="J8" s="177" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="160"/>
-      <c r="B9" s="185"/>
+    <row r="9" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="163"/>
+      <c r="B9" s="182"/>
       <c r="C9" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="186"/>
-      <c r="E9" s="186"/>
-      <c r="F9" s="186"/>
-      <c r="G9" s="186"/>
-      <c r="H9" s="189"/>
-      <c r="I9" s="186"/>
-      <c r="J9" s="194"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="160"/>
-      <c r="B10" s="185"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="183"/>
+      <c r="G9" s="183"/>
+      <c r="H9" s="186"/>
+      <c r="I9" s="183"/>
+      <c r="J9" s="177"/>
+    </row>
+    <row r="10" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="163"/>
+      <c r="B10" s="182"/>
       <c r="C10" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="186"/>
-      <c r="E10" s="186"/>
-      <c r="F10" s="186"/>
-      <c r="G10" s="186"/>
-      <c r="H10" s="189"/>
-      <c r="I10" s="186"/>
-      <c r="J10" s="194"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="160"/>
-      <c r="B11" s="185"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="183"/>
+      <c r="F10" s="183"/>
+      <c r="G10" s="183"/>
+      <c r="H10" s="186"/>
+      <c r="I10" s="183"/>
+      <c r="J10" s="177"/>
+    </row>
+    <row r="11" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="163"/>
+      <c r="B11" s="182"/>
       <c r="C11" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="186"/>
-      <c r="E11" s="186"/>
-      <c r="F11" s="186"/>
-      <c r="G11" s="186"/>
-      <c r="H11" s="189"/>
-      <c r="I11" s="186"/>
-      <c r="J11" s="194"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="160"/>
-      <c r="B12" s="185"/>
+      <c r="D11" s="183"/>
+      <c r="E11" s="183"/>
+      <c r="F11" s="183"/>
+      <c r="G11" s="183"/>
+      <c r="H11" s="186"/>
+      <c r="I11" s="183"/>
+      <c r="J11" s="177"/>
+    </row>
+    <row r="12" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="163"/>
+      <c r="B12" s="182"/>
       <c r="C12" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="186"/>
-      <c r="E12" s="186"/>
-      <c r="F12" s="186"/>
-      <c r="G12" s="186"/>
-      <c r="H12" s="189"/>
-      <c r="I12" s="186"/>
-      <c r="J12" s="194"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="160"/>
-      <c r="B13" s="185"/>
+      <c r="D12" s="183"/>
+      <c r="E12" s="183"/>
+      <c r="F12" s="183"/>
+      <c r="G12" s="183"/>
+      <c r="H12" s="186"/>
+      <c r="I12" s="183"/>
+      <c r="J12" s="177"/>
+    </row>
+    <row r="13" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="163"/>
+      <c r="B13" s="182"/>
       <c r="C13" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="186"/>
-      <c r="E13" s="186">
+      <c r="D13" s="183"/>
+      <c r="E13" s="183">
         <v>19</v>
       </c>
-      <c r="F13" s="186"/>
-      <c r="G13" s="186" t="s">
+      <c r="F13" s="183"/>
+      <c r="G13" s="183" t="s">
         <v>188</v>
       </c>
-      <c r="H13" s="189"/>
-      <c r="I13" s="186"/>
-      <c r="J13" s="194"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="160"/>
-      <c r="B14" s="185"/>
+      <c r="H13" s="186"/>
+      <c r="I13" s="183"/>
+      <c r="J13" s="177"/>
+    </row>
+    <row r="14" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="163"/>
+      <c r="B14" s="182"/>
       <c r="C14" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="187"/>
-      <c r="E14" s="187">
+      <c r="D14" s="184"/>
+      <c r="E14" s="184">
         <v>17</v>
       </c>
-      <c r="F14" s="187"/>
-      <c r="G14" s="187"/>
-      <c r="H14" s="189"/>
-      <c r="I14" s="186"/>
-      <c r="J14" s="194"/>
-    </row>
-    <row r="15" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="160"/>
-      <c r="B15" s="185"/>
+      <c r="F14" s="184"/>
+      <c r="G14" s="184"/>
+      <c r="H14" s="186"/>
+      <c r="I14" s="183"/>
+      <c r="J14" s="177"/>
+    </row>
+    <row r="15" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="163"/>
+      <c r="B15" s="182"/>
       <c r="C15" s="78" t="s">
         <v>151</v>
       </c>
-      <c r="D15" s="126">
+      <c r="D15" s="123">
         <v>3.5</v>
       </c>
-      <c r="E15" s="126">
+      <c r="E15" s="123">
         <v>19</v>
       </c>
-      <c r="F15" s="191">
+      <c r="F15" s="176">
         <v>44428</v>
       </c>
-      <c r="G15" s="126" t="s">
+      <c r="G15" s="123" t="s">
         <v>190</v>
       </c>
-      <c r="H15" s="189"/>
-      <c r="I15" s="186"/>
-      <c r="J15" s="194"/>
-    </row>
-    <row r="16" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="151" t="s">
+      <c r="H15" s="186"/>
+      <c r="I15" s="183"/>
+      <c r="J15" s="177"/>
+    </row>
+    <row r="16" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="126" t="s">
+      <c r="B16" s="123" t="s">
         <v>88</v>
       </c>
       <c r="C16" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126">
+      <c r="D16" s="123"/>
+      <c r="E16" s="123">
         <v>20</v>
       </c>
-      <c r="F16" s="126"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="193" t="s">
+      <c r="F16" s="123"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="188" t="s">
         <v>87</v>
       </c>
-      <c r="I16" s="186"/>
-    </row>
-    <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="151"/>
-      <c r="B17" s="126"/>
+      <c r="I16" s="183"/>
+    </row>
+    <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="155"/>
+      <c r="B17" s="123"/>
       <c r="C17" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="126"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="126"/>
-      <c r="H17" s="193"/>
-      <c r="I17" s="186"/>
-    </row>
-    <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="151"/>
-      <c r="B18" s="126"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="188"/>
+      <c r="I17" s="183"/>
+    </row>
+    <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="155"/>
+      <c r="B18" s="123"/>
       <c r="C18" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="126">
+      <c r="D18" s="123">
         <v>3.5</v>
       </c>
-      <c r="E18" s="126">
+      <c r="E18" s="123">
         <v>20</v>
       </c>
-      <c r="F18" s="191">
+      <c r="F18" s="176">
         <v>44431</v>
       </c>
-      <c r="G18" s="126" t="s">
+      <c r="G18" s="123" t="s">
         <v>186</v>
       </c>
-      <c r="H18" s="193"/>
-      <c r="I18" s="187"/>
-    </row>
-    <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="192"/>
-      <c r="B19" s="192"/>
+      <c r="H18" s="188"/>
+      <c r="I18" s="184"/>
+    </row>
+    <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="175"/>
+      <c r="B19" s="175"/>
       <c r="C19" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126">
+      <c r="D19" s="123"/>
+      <c r="E19" s="123">
         <v>20</v>
       </c>
-      <c r="F19" s="126">
+      <c r="F19" s="123">
         <v>44288</v>
       </c>
-      <c r="G19" s="126" t="s">
+      <c r="G19" s="123" t="s">
         <v>190</v>
       </c>
-      <c r="H19" s="193"/>
-      <c r="I19" s="144">
+      <c r="H19" s="188"/>
+      <c r="I19" s="145">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="192"/>
-      <c r="B20" s="192"/>
+    <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="175"/>
+      <c r="B20" s="175"/>
       <c r="C20" s="77" t="s">
         <v>141</v>
       </c>
-      <c r="D20" s="126"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="126"/>
-      <c r="H20" s="193"/>
-      <c r="I20" s="145"/>
-    </row>
-    <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="192"/>
-      <c r="B21" s="192"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="188"/>
+      <c r="I20" s="146"/>
+    </row>
+    <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="175"/>
+      <c r="B21" s="175"/>
       <c r="C21" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="126">
+      <c r="D21" s="123">
         <v>3.5</v>
       </c>
-      <c r="E21" s="126">
+      <c r="E21" s="123">
         <v>21</v>
       </c>
-      <c r="F21" s="191">
+      <c r="F21" s="176">
         <v>44432</v>
       </c>
-      <c r="G21" s="126" t="s">
+      <c r="G21" s="123" t="s">
         <v>187</v>
       </c>
-      <c r="H21" s="193"/>
-      <c r="I21" s="145"/>
-    </row>
-    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="192"/>
-      <c r="B22" s="192"/>
+      <c r="H21" s="188"/>
+      <c r="I21" s="146"/>
+    </row>
+    <row r="22" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="175"/>
+      <c r="B22" s="175"/>
       <c r="C22" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="D22" s="126"/>
-      <c r="E22" s="126">
+      <c r="D22" s="123"/>
+      <c r="E22" s="123">
         <v>21</v>
       </c>
-      <c r="F22" s="126">
+      <c r="F22" s="123">
         <v>44289</v>
       </c>
-      <c r="G22" s="126" t="s">
+      <c r="G22" s="123" t="s">
         <v>186</v>
       </c>
-      <c r="H22" s="193"/>
-      <c r="I22" s="145"/>
+      <c r="H22" s="188"/>
+      <c r="I22" s="146"/>
       <c r="J22" s="31"/>
       <c r="K22" s="31"/>
     </row>
-    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="192"/>
-      <c r="B23" s="192"/>
+    <row r="23" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="175"/>
+      <c r="B23" s="175"/>
       <c r="C23" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="D23" s="126"/>
-      <c r="E23" s="126">
+      <c r="D23" s="123"/>
+      <c r="E23" s="123">
         <v>22</v>
       </c>
-      <c r="F23" s="126"/>
-      <c r="G23" s="126" t="s">
+      <c r="F23" s="123"/>
+      <c r="G23" s="123" t="s">
         <v>187</v>
       </c>
-      <c r="H23" s="193"/>
-      <c r="I23" s="145"/>
+      <c r="H23" s="188"/>
+      <c r="I23" s="146"/>
       <c r="J23" s="31"/>
       <c r="K23" s="31"/>
     </row>
-    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="192"/>
-      <c r="B24" s="192"/>
+    <row r="24" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="175"/>
+      <c r="B24" s="175"/>
       <c r="C24" s="77" t="s">
         <v>191</v>
       </c>
-      <c r="D24" s="126">
+      <c r="D24" s="123">
         <v>3.5</v>
       </c>
-      <c r="E24" s="126">
+      <c r="E24" s="123">
         <v>22</v>
       </c>
-      <c r="F24" s="191">
+      <c r="F24" s="176">
         <v>44433</v>
       </c>
-      <c r="G24" s="126" t="s">
+      <c r="G24" s="123" t="s">
         <v>188</v>
       </c>
-      <c r="H24" s="193"/>
-      <c r="I24" s="145"/>
+      <c r="H24" s="188"/>
+      <c r="I24" s="146"/>
       <c r="J24" s="31"/>
       <c r="K24" s="31"/>
     </row>
-    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="192"/>
-      <c r="B25" s="192"/>
+    <row r="25" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="175"/>
+      <c r="B25" s="175"/>
       <c r="C25" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="126"/>
-      <c r="E25" s="126">
+      <c r="D25" s="123"/>
+      <c r="E25" s="123">
         <v>23</v>
       </c>
-      <c r="F25" s="126">
+      <c r="F25" s="123">
         <v>44289</v>
       </c>
-      <c r="G25" s="126" t="s">
+      <c r="G25" s="123" t="s">
         <v>189</v>
       </c>
-      <c r="H25" s="126" t="s">
+      <c r="H25" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="I25" s="145"/>
+      <c r="I25" s="146"/>
       <c r="J25" s="31"/>
       <c r="K25" s="31"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="192"/>
-      <c r="B26" s="192"/>
+    <row r="26" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="175"/>
+      <c r="B26" s="175"/>
       <c r="C26" s="77" t="s">
         <v>178</v>
       </c>
-      <c r="D26" s="126"/>
-      <c r="E26" s="126">
+      <c r="D26" s="123"/>
+      <c r="E26" s="123">
         <v>23</v>
       </c>
-      <c r="F26" s="126"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="126"/>
-      <c r="I26" s="145"/>
-    </row>
-    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="192"/>
-      <c r="B27" s="192"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="146"/>
+    </row>
+    <row r="27" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="175"/>
+      <c r="B27" s="175"/>
       <c r="C27" s="80" t="s">
         <v>155</v>
       </c>
-      <c r="D27" s="126">
+      <c r="D27" s="123">
         <v>3.5</v>
       </c>
-      <c r="E27" s="126">
+      <c r="E27" s="123">
         <v>23</v>
       </c>
-      <c r="F27" s="191">
+      <c r="F27" s="176">
         <v>44434</v>
       </c>
-      <c r="G27" s="126" t="s">
+      <c r="G27" s="123" t="s">
         <v>189</v>
       </c>
-      <c r="H27" s="126"/>
-      <c r="I27" s="145"/>
+      <c r="H27" s="123"/>
+      <c r="I27" s="146"/>
       <c r="J27" s="31"/>
       <c r="K27" s="31"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="151" t="s">
+    <row r="28" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="126" t="s">
+      <c r="B28" s="123" t="s">
         <v>146</v>
       </c>
       <c r="C28" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="126"/>
-      <c r="E28" s="126">
+      <c r="D28" s="123"/>
+      <c r="E28" s="123">
         <v>24</v>
       </c>
-      <c r="F28" s="126">
+      <c r="F28" s="123">
         <v>44290</v>
       </c>
-      <c r="G28" s="126" t="s">
+      <c r="G28" s="123" t="s">
         <v>189</v>
       </c>
-      <c r="H28" s="126"/>
-      <c r="I28" s="145"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="151"/>
-      <c r="B29" s="126"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="146"/>
+    </row>
+    <row r="29" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="155"/>
+      <c r="B29" s="123"/>
       <c r="C29" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="126"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="126"/>
-      <c r="H29" s="126"/>
-      <c r="I29" s="145"/>
-    </row>
-    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="192"/>
-      <c r="B30" s="192"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="123"/>
+      <c r="I29" s="146"/>
+    </row>
+    <row r="30" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="175"/>
+      <c r="B30" s="175"/>
       <c r="C30" s="77" t="s">
         <v>205</v>
       </c>
-      <c r="D30" s="126">
+      <c r="D30" s="123">
         <v>3.5</v>
       </c>
-      <c r="E30" s="126">
+      <c r="E30" s="123">
         <v>24</v>
       </c>
-      <c r="F30" s="191">
+      <c r="F30" s="176">
         <v>44435</v>
       </c>
-      <c r="G30" s="126" t="s">
+      <c r="G30" s="123" t="s">
         <v>190</v>
       </c>
-      <c r="H30" s="126"/>
-      <c r="I30" s="145"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="146"/>
       <c r="J30" s="31"/>
       <c r="K30" s="31"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="192"/>
-      <c r="B31" s="192"/>
+    <row r="31" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="175"/>
+      <c r="B31" s="175"/>
       <c r="C31" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="D31" s="126"/>
-      <c r="E31" s="126">
+      <c r="D31" s="123"/>
+      <c r="E31" s="123">
         <v>20</v>
       </c>
-      <c r="F31" s="126"/>
-      <c r="G31" s="126"/>
-      <c r="H31" s="126"/>
-      <c r="I31" s="145"/>
-    </row>
-    <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="192"/>
-      <c r="B32" s="192"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="146"/>
+    </row>
+    <row r="32" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="175"/>
+      <c r="B32" s="175"/>
       <c r="C32" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="126"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="126"/>
-      <c r="G32" s="126"/>
-      <c r="H32" s="126"/>
-      <c r="I32" s="145"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="123"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="123"/>
+      <c r="H32" s="123"/>
+      <c r="I32" s="146"/>
       <c r="J32" s="31"/>
       <c r="K32" s="31"/>
     </row>
-    <row r="33" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="192"/>
-      <c r="B33" s="192"/>
+    <row r="33" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="175"/>
+      <c r="B33" s="175"/>
       <c r="C33" s="77" t="s">
         <v>231</v>
       </c>
-      <c r="D33" s="126"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="126"/>
-      <c r="H33" s="126"/>
-      <c r="I33" s="145"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="123"/>
+      <c r="F33" s="123"/>
+      <c r="G33" s="123"/>
+      <c r="H33" s="123"/>
+      <c r="I33" s="146"/>
       <c r="J33" s="31"/>
       <c r="K33" s="31"/>
     </row>
-    <row r="34" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="192"/>
-      <c r="B34" s="192"/>
+    <row r="34" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="175"/>
+      <c r="B34" s="175"/>
       <c r="C34" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="126"/>
-      <c r="E34" s="126"/>
-      <c r="F34" s="126"/>
-      <c r="G34" s="126"/>
-      <c r="H34" s="126"/>
-      <c r="I34" s="145"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="123"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="123"/>
+      <c r="H34" s="123"/>
+      <c r="I34" s="146"/>
       <c r="J34" s="31"/>
       <c r="K34" s="31"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="192"/>
-      <c r="B35" s="192"/>
+    <row r="35" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="175"/>
+      <c r="B35" s="175"/>
       <c r="C35" s="77" t="s">
         <v>232</v>
       </c>
-      <c r="D35" s="126">
+      <c r="D35" s="123">
         <v>3.5</v>
       </c>
-      <c r="E35" s="126">
+      <c r="E35" s="123">
         <v>25</v>
       </c>
-      <c r="F35" s="191">
+      <c r="F35" s="176">
         <v>44438</v>
       </c>
-      <c r="G35" s="126" t="s">
+      <c r="G35" s="123" t="s">
         <v>186</v>
       </c>
-      <c r="H35" s="126"/>
-      <c r="I35" s="145">
+      <c r="H35" s="123"/>
+      <c r="I35" s="146">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="192"/>
-      <c r="B36" s="192"/>
+    <row r="36" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="175"/>
+      <c r="B36" s="175"/>
       <c r="C36" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="D36" s="126"/>
-      <c r="E36" s="126"/>
-      <c r="F36" s="126"/>
-      <c r="G36" s="126"/>
-      <c r="H36" s="126"/>
-      <c r="I36" s="145"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="151" t="s">
+      <c r="D36" s="123"/>
+      <c r="E36" s="123"/>
+      <c r="F36" s="123"/>
+      <c r="G36" s="123"/>
+      <c r="H36" s="123"/>
+      <c r="I36" s="146"/>
+    </row>
+    <row r="37" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="155" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="126" t="s">
+      <c r="B37" s="123" t="s">
         <v>99</v>
       </c>
       <c r="C37" s="81" t="s">
         <v>182</v>
       </c>
-      <c r="D37" s="126">
+      <c r="D37" s="123">
         <v>3.5</v>
       </c>
-      <c r="E37" s="126">
+      <c r="E37" s="123">
         <v>26</v>
       </c>
-      <c r="F37" s="191">
+      <c r="F37" s="176">
         <v>44439</v>
       </c>
-      <c r="G37" s="126" t="s">
+      <c r="G37" s="123" t="s">
         <v>187</v>
       </c>
-      <c r="H37" s="126"/>
-      <c r="I37" s="145"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="151"/>
-      <c r="B38" s="126"/>
+      <c r="H37" s="123"/>
+      <c r="I37" s="146"/>
+    </row>
+    <row r="38" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="155"/>
+      <c r="B38" s="123"/>
       <c r="C38" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="D38" s="126"/>
-      <c r="E38" s="126"/>
-      <c r="F38" s="126"/>
-      <c r="G38" s="126"/>
-      <c r="H38" s="126"/>
-      <c r="I38" s="145"/>
-    </row>
-    <row r="39" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="192"/>
-      <c r="B39" s="192"/>
+      <c r="D38" s="123"/>
+      <c r="E38" s="123"/>
+      <c r="F38" s="123"/>
+      <c r="G38" s="123"/>
+      <c r="H38" s="123"/>
+      <c r="I38" s="146"/>
+    </row>
+    <row r="39" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="175"/>
+      <c r="B39" s="175"/>
       <c r="C39" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="D39" s="126"/>
-      <c r="E39" s="126">
+      <c r="D39" s="123"/>
+      <c r="E39" s="123">
         <v>26</v>
       </c>
-      <c r="F39" s="126">
+      <c r="F39" s="123">
         <v>44295</v>
       </c>
-      <c r="G39" s="126" t="s">
+      <c r="G39" s="123" t="s">
         <v>190</v>
       </c>
-      <c r="H39" s="126"/>
-      <c r="I39" s="145"/>
+      <c r="H39" s="123"/>
+      <c r="I39" s="146"/>
       <c r="J39" s="31"/>
       <c r="K39" s="31"/>
     </row>
-    <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="192"/>
-      <c r="B40" s="192"/>
+    <row r="40" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="175"/>
+      <c r="B40" s="175"/>
       <c r="C40" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="D40" s="126"/>
-      <c r="E40" s="126"/>
-      <c r="F40" s="126"/>
-      <c r="G40" s="126"/>
-      <c r="H40" s="126"/>
-      <c r="I40" s="145"/>
+      <c r="D40" s="123"/>
+      <c r="E40" s="123"/>
+      <c r="F40" s="123"/>
+      <c r="G40" s="123"/>
+      <c r="H40" s="123"/>
+      <c r="I40" s="146"/>
       <c r="J40" s="31"/>
       <c r="K40" s="31"/>
     </row>
-    <row r="41" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="192"/>
-      <c r="B41" s="192"/>
+    <row r="41" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="175"/>
+      <c r="B41" s="175"/>
       <c r="C41" s="77" t="s">
         <v>221</v>
       </c>
-      <c r="D41" s="111">
+      <c r="D41" s="99">
         <v>3.5</v>
       </c>
-      <c r="E41" s="111">
+      <c r="E41" s="99">
         <v>27</v>
       </c>
-      <c r="F41" s="127">
+      <c r="F41" s="124">
         <v>44440</v>
       </c>
-      <c r="G41" s="111" t="s">
+      <c r="G41" s="99" t="s">
         <v>188</v>
       </c>
-      <c r="H41" s="126"/>
-      <c r="I41" s="145"/>
+      <c r="H41" s="123"/>
+      <c r="I41" s="146"/>
       <c r="J41" s="31"/>
       <c r="K41" s="31"/>
     </row>
-    <row r="42" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="192"/>
-      <c r="B42" s="192"/>
+    <row r="42" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="175"/>
+      <c r="B42" s="175"/>
       <c r="C42" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="D42" s="111"/>
-      <c r="E42" s="111">
+      <c r="D42" s="99"/>
+      <c r="E42" s="99">
         <v>27</v>
       </c>
-      <c r="F42" s="111">
+      <c r="F42" s="99">
         <v>44298</v>
       </c>
-      <c r="G42" s="111" t="s">
+      <c r="G42" s="99" t="s">
         <v>186</v>
       </c>
-      <c r="H42" s="126"/>
-      <c r="I42" s="145"/>
+      <c r="H42" s="123"/>
+      <c r="I42" s="146"/>
       <c r="J42" s="31"/>
       <c r="K42" s="31"/>
     </row>
-    <row r="43" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="192"/>
-      <c r="B43" s="192"/>
+    <row r="43" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="175"/>
+      <c r="B43" s="175"/>
       <c r="C43" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="D43" s="111"/>
-      <c r="E43" s="111"/>
-      <c r="F43" s="111"/>
-      <c r="G43" s="111"/>
-      <c r="H43" s="126"/>
-      <c r="I43" s="145"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="99"/>
+      <c r="F43" s="99"/>
+      <c r="G43" s="99"/>
+      <c r="H43" s="123"/>
+      <c r="I43" s="146"/>
       <c r="J43" s="31"/>
       <c r="K43" s="31"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="192"/>
-      <c r="B44" s="192"/>
+    <row r="44" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="175"/>
+      <c r="B44" s="175"/>
       <c r="C44" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="D44" s="111"/>
-      <c r="E44" s="111">
+      <c r="D44" s="99"/>
+      <c r="E44" s="99">
         <v>26</v>
       </c>
-      <c r="F44" s="111"/>
-      <c r="G44" s="111"/>
-      <c r="H44" s="126"/>
-      <c r="I44" s="145"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="192"/>
-      <c r="B45" s="192"/>
+      <c r="F44" s="99"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="123"/>
+      <c r="I44" s="146"/>
+    </row>
+    <row r="45" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="175"/>
+      <c r="B45" s="175"/>
       <c r="C45" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="D45" s="111"/>
-      <c r="E45" s="111"/>
-      <c r="F45" s="111"/>
-      <c r="G45" s="111"/>
-      <c r="H45" s="126"/>
-      <c r="I45" s="145"/>
-    </row>
-    <row r="46" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="192"/>
-      <c r="B46" s="192"/>
+      <c r="D45" s="99"/>
+      <c r="E45" s="99"/>
+      <c r="F45" s="99"/>
+      <c r="G45" s="99"/>
+      <c r="H45" s="123"/>
+      <c r="I45" s="146"/>
+    </row>
+    <row r="46" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="175"/>
+      <c r="B46" s="175"/>
       <c r="C46" s="77" t="s">
         <v>222</v>
       </c>
-      <c r="D46" s="111">
+      <c r="D46" s="99">
         <v>3.5</v>
       </c>
-      <c r="E46" s="111">
+      <c r="E46" s="99">
         <v>28</v>
       </c>
-      <c r="F46" s="127">
+      <c r="F46" s="124">
         <v>44441</v>
       </c>
-      <c r="G46" s="111" t="s">
+      <c r="G46" s="99" t="s">
         <v>189</v>
       </c>
-      <c r="H46" s="126"/>
-      <c r="I46" s="145"/>
+      <c r="H46" s="123"/>
+      <c r="I46" s="146"/>
       <c r="J46" s="31"/>
       <c r="K46" s="31"/>
     </row>
-    <row r="47" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="192"/>
-      <c r="B47" s="192"/>
+    <row r="47" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A47" s="175"/>
+      <c r="B47" s="175"/>
       <c r="C47" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="D47" s="111"/>
-      <c r="E47" s="111"/>
-      <c r="F47" s="111"/>
-      <c r="G47" s="111"/>
-      <c r="H47" s="126"/>
-      <c r="I47" s="145"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="99"/>
+      <c r="G47" s="99"/>
+      <c r="H47" s="123"/>
+      <c r="I47" s="146"/>
       <c r="J47" s="31"/>
       <c r="K47" s="31"/>
     </row>
-    <row r="48" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="151" t="s">
+    <row r="48" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="155" t="s">
         <v>162</v>
       </c>
-      <c r="B48" s="126" t="s">
+      <c r="B48" s="123" t="s">
         <v>107</v>
       </c>
       <c r="C48" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="D48" s="111"/>
-      <c r="E48" s="111">
+      <c r="D48" s="99"/>
+      <c r="E48" s="99">
         <v>29</v>
       </c>
-      <c r="F48" s="111">
+      <c r="F48" s="99">
         <v>44300</v>
       </c>
-      <c r="G48" s="111" t="s">
+      <c r="G48" s="99" t="s">
         <v>188</v>
       </c>
-      <c r="H48" s="126"/>
-      <c r="I48" s="145"/>
+      <c r="H48" s="123"/>
+      <c r="I48" s="146"/>
       <c r="J48" s="31"/>
       <c r="K48" s="31"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="192"/>
-      <c r="B49" s="192"/>
+    <row r="49" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="175"/>
+      <c r="B49" s="175"/>
       <c r="C49" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="D49" s="126">
+      <c r="D49" s="123">
         <v>3.5</v>
       </c>
-      <c r="E49" s="126">
+      <c r="E49" s="123">
         <v>29</v>
       </c>
-      <c r="F49" s="191">
+      <c r="F49" s="176">
         <v>44442</v>
       </c>
-      <c r="G49" s="126" t="s">
+      <c r="G49" s="123" t="s">
         <v>190</v>
       </c>
-      <c r="H49" s="126"/>
-      <c r="I49" s="145"/>
-    </row>
-    <row r="50" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="192"/>
-      <c r="B50" s="192"/>
+      <c r="H49" s="123"/>
+      <c r="I49" s="146"/>
+    </row>
+    <row r="50" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="175"/>
+      <c r="B50" s="175"/>
       <c r="C50" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="D50" s="126"/>
-      <c r="E50" s="126"/>
-      <c r="F50" s="126"/>
-      <c r="G50" s="126"/>
-      <c r="H50" s="126"/>
-      <c r="I50" s="145"/>
+      <c r="D50" s="123"/>
+      <c r="E50" s="123"/>
+      <c r="F50" s="123"/>
+      <c r="G50" s="123"/>
+      <c r="H50" s="123"/>
+      <c r="I50" s="146"/>
       <c r="J50" s="31"/>
       <c r="K50" s="31"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="192"/>
-      <c r="B51" s="192"/>
+    <row r="51" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="175"/>
+      <c r="B51" s="175"/>
       <c r="C51" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="D51" s="126"/>
-      <c r="E51" s="126"/>
-      <c r="F51" s="126"/>
-      <c r="G51" s="126"/>
-      <c r="H51" s="126"/>
-      <c r="I51" s="145"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="192"/>
-      <c r="B52" s="192"/>
+      <c r="D51" s="123"/>
+      <c r="E51" s="123"/>
+      <c r="F51" s="123"/>
+      <c r="G51" s="123"/>
+      <c r="H51" s="123"/>
+      <c r="I51" s="146"/>
+    </row>
+    <row r="52" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="175"/>
+      <c r="B52" s="175"/>
       <c r="C52" s="80" t="s">
         <v>158</v>
       </c>
-      <c r="D52" s="126"/>
-      <c r="E52" s="126"/>
-      <c r="F52" s="126"/>
-      <c r="G52" s="126"/>
-      <c r="H52" s="126"/>
-      <c r="I52" s="145"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="192"/>
-      <c r="B53" s="192"/>
+      <c r="D52" s="123"/>
+      <c r="E52" s="123"/>
+      <c r="F52" s="123"/>
+      <c r="G52" s="123"/>
+      <c r="H52" s="123"/>
+      <c r="I52" s="146"/>
+    </row>
+    <row r="53" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="175"/>
+      <c r="B53" s="175"/>
       <c r="C53" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="D53" s="126"/>
-      <c r="E53" s="126"/>
-      <c r="F53" s="126"/>
-      <c r="G53" s="126"/>
-      <c r="H53" s="126"/>
-      <c r="I53" s="145"/>
-    </row>
-    <row r="54" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="195" t="s">
+      <c r="D53" s="123"/>
+      <c r="E53" s="123"/>
+      <c r="F53" s="123"/>
+      <c r="G53" s="123"/>
+      <c r="H53" s="123"/>
+      <c r="I53" s="146"/>
+    </row>
+    <row r="54" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="174" t="s">
         <v>139</v>
       </c>
-      <c r="B54" s="195"/>
+      <c r="B54" s="174"/>
       <c r="C54" s="63" t="s">
         <v>226</v>
       </c>
@@ -5343,14 +5342,14 @@
         <v>187</v>
       </c>
       <c r="H54" s="70"/>
-      <c r="I54" s="146"/>
+      <c r="I54" s="147"/>
       <c r="J54" s="82"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="195" t="s">
+    <row r="56" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="174" t="s">
         <v>209</v>
       </c>
-      <c r="B56" s="195"/>
+      <c r="B56" s="174"/>
       <c r="C56" s="54" t="s">
         <v>211</v>
       </c>
@@ -5373,23 +5372,47 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A48:A53"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="D49:D53"/>
-    <mergeCell ref="F49:F53"/>
-    <mergeCell ref="G49:G53"/>
-    <mergeCell ref="A37:A47"/>
-    <mergeCell ref="B37:B47"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="E37:E40"/>
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="G37:G40"/>
-    <mergeCell ref="D41:D45"/>
-    <mergeCell ref="E41:E45"/>
-    <mergeCell ref="F41:F45"/>
-    <mergeCell ref="G41:G45"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="B8:B15"/>
+    <mergeCell ref="D8:D14"/>
+    <mergeCell ref="E8:E14"/>
+    <mergeCell ref="F8:F14"/>
+    <mergeCell ref="G8:G14"/>
+    <mergeCell ref="H8:H15"/>
+    <mergeCell ref="I8:I18"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="B16:B27"/>
+    <mergeCell ref="H16:H24"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="J8:J15"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="I19:I34"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="A28:A36"/>
+    <mergeCell ref="B28:B36"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="F30:F34"/>
     <mergeCell ref="I35:I54"/>
     <mergeCell ref="D46:D48"/>
     <mergeCell ref="E46:E48"/>
@@ -5406,47 +5429,23 @@
     <mergeCell ref="F35:F36"/>
     <mergeCell ref="G35:G36"/>
     <mergeCell ref="E49:E53"/>
-    <mergeCell ref="A28:A36"/>
-    <mergeCell ref="B28:B36"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="I19:I34"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="J8:J15"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="B8:B15"/>
-    <mergeCell ref="D8:D14"/>
-    <mergeCell ref="E8:E14"/>
-    <mergeCell ref="F8:F14"/>
-    <mergeCell ref="G8:G14"/>
-    <mergeCell ref="H8:H15"/>
-    <mergeCell ref="I8:I18"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="B16:B27"/>
-    <mergeCell ref="H16:H24"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="F49:F53"/>
+    <mergeCell ref="G49:G53"/>
+    <mergeCell ref="A37:A47"/>
+    <mergeCell ref="B37:B47"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="E37:E40"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="G37:G40"/>
+    <mergeCell ref="D41:D45"/>
+    <mergeCell ref="E41:E45"/>
+    <mergeCell ref="F41:F45"/>
+    <mergeCell ref="G41:G45"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A48:A53"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="D49:D53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5454,7 +5453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3782B2-D687-4593-BE61-3A5D35BA8143}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -5464,52 +5463,52 @@
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.88671875" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="18" customWidth="1"/>
     <col min="5" max="5" width="15" style="18" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="14.42578125" style="18"/>
+    <col min="6" max="6" width="11.109375" style="18" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="14.44140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="153" t="s">
+    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="156" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="175"/>
-    </row>
-    <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="207" t="s">
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="190"/>
+    </row>
+    <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="199" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="207"/>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-    </row>
-    <row r="3" spans="1:23" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="199"/>
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+    </row>
+    <row r="3" spans="1:23" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="164" t="s">
+      <c r="B3" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="165"/>
+      <c r="C3" s="168"/>
       <c r="D3" s="27" t="s">
         <v>2</v>
       </c>
@@ -5533,14 +5532,14 @@
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
     </row>
-    <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="127" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="165"/>
+      <c r="C4" s="168"/>
       <c r="D4" s="10">
         <v>2</v>
       </c>
@@ -5563,14 +5562,14 @@
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
     </row>
-    <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="127" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="165"/>
+      <c r="C5" s="168"/>
       <c r="D5" s="10">
         <v>2</v>
       </c>
@@ -5593,14 +5592,14 @@
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
     </row>
-    <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="127" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="165"/>
+      <c r="C6" s="168"/>
       <c r="D6" s="10">
         <v>2</v>
       </c>
@@ -5623,20 +5622,20 @@
       <c r="U6" s="15"/>
       <c r="V6" s="15"/>
     </row>
-    <row r="7" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="207" t="s">
+    <row r="7" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="199" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="207"/>
-      <c r="C7" s="207"/>
-      <c r="D7" s="207"/>
-      <c r="E7" s="207"/>
-      <c r="F7" s="207"/>
-      <c r="G7" s="207"/>
-      <c r="H7" s="207"/>
-      <c r="I7" s="207"/>
-    </row>
-    <row r="8" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="199"/>
+      <c r="C7" s="199"/>
+      <c r="D7" s="199"/>
+      <c r="E7" s="199"/>
+      <c r="F7" s="199"/>
+      <c r="G7" s="199"/>
+      <c r="H7" s="199"/>
+      <c r="I7" s="199"/>
+    </row>
+    <row r="8" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -5679,334 +5678,334 @@
       <c r="V8" s="8"/>
       <c r="W8" s="8"/>
     </row>
-    <row r="9" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="208" t="s">
+    <row r="9" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="200" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="208" t="s">
+      <c r="B9" s="200" t="s">
         <v>115</v>
       </c>
       <c r="C9" s="94" t="s">
         <v>194</v>
       </c>
-      <c r="D9" s="126">
+      <c r="D9" s="123">
         <v>3.5</v>
       </c>
-      <c r="E9" s="126">
+      <c r="E9" s="123">
         <v>30</v>
       </c>
-      <c r="F9" s="191">
+      <c r="F9" s="176">
         <v>44447</v>
       </c>
-      <c r="G9" s="126" t="s">
+      <c r="G9" s="123" t="s">
         <v>188</v>
       </c>
       <c r="H9" s="196" t="s">
         <v>112</v>
       </c>
-      <c r="I9" s="126">
+      <c r="I9" s="123">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="209"/>
-      <c r="B10" s="209"/>
+    <row r="10" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="201"/>
+      <c r="B10" s="201"/>
       <c r="C10" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="126"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="126"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
       <c r="H10" s="197"/>
-      <c r="I10" s="126"/>
-    </row>
-    <row r="11" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="210"/>
-      <c r="B11" s="210"/>
+      <c r="I10" s="123"/>
+    </row>
+    <row r="11" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="202"/>
+      <c r="B11" s="202"/>
       <c r="C11" s="95" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
       <c r="H11" s="197"/>
-      <c r="I11" s="126"/>
-    </row>
-    <row r="12" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="210"/>
-      <c r="B12" s="210"/>
+      <c r="I11" s="123"/>
+    </row>
+    <row r="12" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="202"/>
+      <c r="B12" s="202"/>
       <c r="C12" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="D12" s="126"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="126"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
       <c r="H12" s="197"/>
-      <c r="I12" s="126"/>
-    </row>
-    <row r="13" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="210"/>
-      <c r="B13" s="210"/>
+      <c r="I12" s="123"/>
+    </row>
+    <row r="13" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="202"/>
+      <c r="B13" s="202"/>
       <c r="C13" s="95" t="s">
         <v>119</v>
       </c>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="126"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
       <c r="H13" s="197"/>
-      <c r="I13" s="126"/>
-    </row>
-    <row r="14" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="210"/>
-      <c r="B14" s="210"/>
+      <c r="I13" s="123"/>
+    </row>
+    <row r="14" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="202"/>
+      <c r="B14" s="202"/>
       <c r="C14" s="95" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="126"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="126"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
       <c r="H14" s="197"/>
-      <c r="I14" s="126"/>
-    </row>
-    <row r="15" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="210"/>
-      <c r="B15" s="210"/>
+      <c r="I14" s="123"/>
+    </row>
+    <row r="15" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="202"/>
+      <c r="B15" s="202"/>
       <c r="C15" s="95" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="126"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
       <c r="H15" s="197"/>
-      <c r="I15" s="126"/>
-    </row>
-    <row r="16" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="210"/>
-      <c r="B16" s="210"/>
+      <c r="I15" s="123"/>
+    </row>
+    <row r="16" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="202"/>
+      <c r="B16" s="202"/>
       <c r="C16" s="95" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="126"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="123"/>
       <c r="H16" s="197"/>
-      <c r="I16" s="126"/>
-    </row>
-    <row r="17" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="210"/>
-      <c r="B17" s="210"/>
+      <c r="I16" s="123"/>
+    </row>
+    <row r="17" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="202"/>
+      <c r="B17" s="202"/>
       <c r="C17" s="95" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="126">
+      <c r="D17" s="123">
         <v>3.5</v>
       </c>
-      <c r="E17" s="126">
+      <c r="E17" s="123">
         <v>31</v>
       </c>
-      <c r="F17" s="191">
+      <c r="F17" s="176">
         <v>44448</v>
       </c>
-      <c r="G17" s="126" t="s">
+      <c r="G17" s="123" t="s">
         <v>189</v>
       </c>
       <c r="H17" s="197"/>
-      <c r="I17" s="126"/>
-    </row>
-    <row r="18" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="210"/>
-      <c r="B18" s="210"/>
+      <c r="I17" s="123"/>
+    </row>
+    <row r="18" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="202"/>
+      <c r="B18" s="202"/>
       <c r="C18" s="95" t="s">
         <v>124</v>
       </c>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="126"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
       <c r="H18" s="197"/>
-      <c r="I18" s="126"/>
-    </row>
-    <row r="19" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="210"/>
-      <c r="B19" s="210"/>
+      <c r="I18" s="123"/>
+    </row>
+    <row r="19" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="202"/>
+      <c r="B19" s="202"/>
       <c r="C19" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="126"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
       <c r="H19" s="197"/>
-      <c r="I19" s="126"/>
-    </row>
-    <row r="20" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="210"/>
-      <c r="B20" s="210"/>
+      <c r="I19" s="123"/>
+    </row>
+    <row r="20" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="202"/>
+      <c r="B20" s="202"/>
       <c r="C20" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="D20" s="126"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="126"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
       <c r="H20" s="197"/>
-      <c r="I20" s="126"/>
-    </row>
-    <row r="21" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="210"/>
-      <c r="B21" s="210"/>
+      <c r="I20" s="123"/>
+    </row>
+    <row r="21" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="202"/>
+      <c r="B21" s="202"/>
       <c r="C21" s="95" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="126"/>
-      <c r="E21" s="126">
+      <c r="D21" s="123"/>
+      <c r="E21" s="123">
         <v>29</v>
       </c>
-      <c r="F21" s="126"/>
-      <c r="G21" s="126"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
       <c r="H21" s="198"/>
-      <c r="I21" s="126"/>
-    </row>
-    <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="210"/>
-      <c r="B22" s="210"/>
+      <c r="I21" s="123"/>
+    </row>
+    <row r="22" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="202"/>
+      <c r="B22" s="202"/>
       <c r="C22" s="95" t="s">
         <v>128</v>
       </c>
-      <c r="D22" s="126"/>
-      <c r="E22" s="126">
+      <c r="D22" s="123"/>
+      <c r="E22" s="123">
         <v>32</v>
       </c>
-      <c r="F22" s="126"/>
-      <c r="G22" s="126" t="s">
+      <c r="F22" s="123"/>
+      <c r="G22" s="123" t="s">
         <v>187</v>
       </c>
       <c r="H22" s="196" t="s">
         <v>113</v>
       </c>
-      <c r="I22" s="126"/>
-    </row>
-    <row r="23" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="210"/>
-      <c r="B23" s="210"/>
+      <c r="I22" s="123"/>
+    </row>
+    <row r="23" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="202"/>
+      <c r="B23" s="202"/>
       <c r="C23" s="95" t="s">
         <v>118</v>
       </c>
-      <c r="D23" s="126"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="126"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
       <c r="H23" s="197"/>
-      <c r="I23" s="126"/>
-    </row>
-    <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="210"/>
-      <c r="B24" s="210"/>
+      <c r="I23" s="123"/>
+    </row>
+    <row r="24" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="202"/>
+      <c r="B24" s="202"/>
       <c r="C24" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="D24" s="126"/>
-      <c r="E24" s="126"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="126"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="123"/>
       <c r="H24" s="197"/>
-      <c r="I24" s="126"/>
-    </row>
-    <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="206" t="s">
+      <c r="I24" s="123"/>
+    </row>
+    <row r="25" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="206" t="s">
+      <c r="B25" s="210" t="s">
         <v>129</v>
       </c>
       <c r="C25" s="77" t="s">
         <v>145</v>
       </c>
-      <c r="D25" s="126">
+      <c r="D25" s="123">
         <v>3.5</v>
       </c>
-      <c r="E25" s="126">
+      <c r="E25" s="123">
         <v>32</v>
       </c>
-      <c r="F25" s="191">
+      <c r="F25" s="176">
         <v>44449</v>
       </c>
-      <c r="G25" s="126" t="s">
+      <c r="G25" s="123" t="s">
         <v>190</v>
       </c>
       <c r="H25" s="197"/>
-      <c r="I25" s="126"/>
-    </row>
-    <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="206"/>
-      <c r="B26" s="206"/>
+      <c r="I25" s="123"/>
+    </row>
+    <row r="26" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="210"/>
+      <c r="B26" s="210"/>
       <c r="C26" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="D26" s="126"/>
-      <c r="E26" s="126">
+      <c r="D26" s="123"/>
+      <c r="E26" s="123">
         <v>30</v>
       </c>
-      <c r="F26" s="126"/>
-      <c r="G26" s="126"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="123"/>
       <c r="H26" s="198"/>
-      <c r="I26" s="126"/>
-    </row>
-    <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="206"/>
-      <c r="B27" s="206"/>
+      <c r="I26" s="123"/>
+    </row>
+    <row r="27" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="210"/>
+      <c r="B27" s="210"/>
       <c r="C27" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="D27" s="126"/>
-      <c r="E27" s="126">
+      <c r="D27" s="123"/>
+      <c r="E27" s="123">
         <v>33</v>
       </c>
-      <c r="F27" s="126"/>
-      <c r="G27" s="126" t="s">
+      <c r="F27" s="123"/>
+      <c r="G27" s="123" t="s">
         <v>188</v>
       </c>
       <c r="H27" s="196" t="s">
         <v>114</v>
       </c>
-      <c r="I27" s="126"/>
-    </row>
-    <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="206"/>
-      <c r="B28" s="206"/>
+      <c r="I27" s="123"/>
+    </row>
+    <row r="28" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="210"/>
+      <c r="B28" s="210"/>
       <c r="C28" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="D28" s="126"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="126"/>
-      <c r="G28" s="126"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="123"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="123"/>
       <c r="H28" s="197"/>
-      <c r="I28" s="126"/>
-    </row>
-    <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="206"/>
-      <c r="B29" s="206"/>
+      <c r="I28" s="123"/>
+    </row>
+    <row r="29" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="210"/>
+      <c r="B29" s="210"/>
       <c r="C29" s="94" t="s">
         <v>193</v>
       </c>
-      <c r="D29" s="126"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="126"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="123"/>
       <c r="H29" s="198"/>
-      <c r="I29" s="126"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="203"/>
-      <c r="B30" s="204"/>
+      <c r="I29" s="123"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="207"/>
+      <c r="B30" s="208"/>
       <c r="C30" s="93" t="s">
         <v>233</v>
       </c>
@@ -6025,9 +6024,9 @@
       <c r="H30" s="91" t="s">
         <v>140</v>
       </c>
-      <c r="I30" s="126"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I30" s="123"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="90"/>
       <c r="B31" s="89"/>
       <c r="C31" s="88"/>
@@ -6038,7 +6037,7 @@
       <c r="H31" s="86"/>
       <c r="I31" s="86"/>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="90"/>
       <c r="B32" s="89"/>
       <c r="C32" s="88"/>
@@ -6049,11 +6048,11 @@
       <c r="H32" s="86"/>
       <c r="I32" s="86"/>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="205" t="s">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="209" t="s">
         <v>133</v>
       </c>
-      <c r="B33" s="205"/>
+      <c r="B33" s="209"/>
       <c r="C33" s="77" t="s">
         <v>206</v>
       </c>
@@ -6072,11 +6071,11 @@
       </c>
       <c r="I33" s="67"/>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="199" t="s">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="203" t="s">
         <v>133</v>
       </c>
-      <c r="B35" s="200"/>
+      <c r="B35" s="204"/>
       <c r="C35" s="77" t="s">
         <v>207</v>
       </c>
@@ -6093,13 +6092,13 @@
       <c r="H35" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="I35" s="102">
+      <c r="I35" s="134">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="201"/>
-      <c r="B36" s="202"/>
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="205"/>
+      <c r="B36" s="206"/>
       <c r="C36" s="77" t="s">
         <v>208</v>
       </c>
@@ -6116,10 +6115,25 @@
       <c r="H36" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="I36" s="102"/>
+      <c r="I36" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="G9:G16"/>
+    <mergeCell ref="A35:B36"/>
+    <mergeCell ref="I9:I30"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D17:D24"/>
+    <mergeCell ref="E17:E24"/>
+    <mergeCell ref="F17:F24"/>
+    <mergeCell ref="G17:G24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="B25:B29"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F25:F29"/>
     <mergeCell ref="G25:G29"/>
@@ -6136,21 +6150,6 @@
     <mergeCell ref="B9:B24"/>
     <mergeCell ref="D9:D16"/>
     <mergeCell ref="E9:E16"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="G9:G16"/>
-    <mergeCell ref="A35:B36"/>
-    <mergeCell ref="I9:I30"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D17:D24"/>
-    <mergeCell ref="E17:E24"/>
-    <mergeCell ref="F17:F24"/>
-    <mergeCell ref="G17:G24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="B25:B29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6158,30 +6157,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B57DE4-DFF6-4792-8DDA-F8BAFCDD046C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D17" sqref="D17:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="57.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="57.5546875" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="211" t="s">
+    <row r="1" spans="1:4" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="217" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="48" t="s">
         <v>196</v>
       </c>
@@ -6195,8 +6194,8 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="212" t="s">
+    <row r="3" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="218" t="s">
         <v>130</v>
       </c>
       <c r="B3" s="37" t="s">
@@ -6209,8 +6208,8 @@
         <v>44405</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="213"/>
+    <row r="4" spans="1:4" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="219"/>
       <c r="B4" s="37" t="s">
         <v>4</v>
       </c>
@@ -6221,8 +6220,8 @@
         <v>44407</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="213"/>
+    <row r="5" spans="1:4" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="219"/>
       <c r="B5" s="37" t="s">
         <v>6</v>
       </c>
@@ -6233,24 +6232,24 @@
         <v>44412</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="214"/>
-      <c r="B6" s="221" t="s">
+    <row r="6" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="220"/>
+      <c r="B6" s="224" t="s">
         <v>160</v>
       </c>
-      <c r="C6" s="220"/>
+      <c r="C6" s="223"/>
       <c r="D6" s="49">
         <v>44413</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="215"/>
-      <c r="B7" s="216"/>
-      <c r="C7" s="216"/>
-      <c r="D7" s="217"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="212" t="s">
+    <row r="7" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="214"/>
+      <c r="B7" s="215"/>
+      <c r="C7" s="215"/>
+      <c r="D7" s="216"/>
+    </row>
+    <row r="8" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="218" t="s">
         <v>131</v>
       </c>
       <c r="B8" s="37" t="s">
@@ -6263,8 +6262,8 @@
         <v>44419</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="213"/>
+    <row r="9" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="219"/>
       <c r="B9" s="37" t="s">
         <v>4</v>
       </c>
@@ -6275,8 +6274,8 @@
         <v>44424</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="213"/>
+    <row r="10" spans="1:4" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="219"/>
       <c r="B10" s="37" t="s">
         <v>6</v>
       </c>
@@ -6287,34 +6286,34 @@
         <v>44425</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="213"/>
-      <c r="B11" s="218" t="s">
+    <row r="11" spans="1:4" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="219"/>
+      <c r="B11" s="221" t="s">
         <v>228</v>
       </c>
-      <c r="C11" s="220"/>
+      <c r="C11" s="223"/>
       <c r="D11" s="53">
         <v>44426</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="214"/>
-      <c r="B12" s="218" t="s">
+    <row r="12" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="220"/>
+      <c r="B12" s="221" t="s">
         <v>220</v>
       </c>
-      <c r="C12" s="219"/>
+      <c r="C12" s="222"/>
       <c r="D12" s="53">
         <v>44427</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="215"/>
-      <c r="B13" s="216"/>
-      <c r="C13" s="216"/>
-      <c r="D13" s="217"/>
-    </row>
-    <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="212" t="s">
+    <row r="13" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="214"/>
+      <c r="B13" s="215"/>
+      <c r="C13" s="215"/>
+      <c r="D13" s="216"/>
+    </row>
+    <row r="14" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="218" t="s">
         <v>132</v>
       </c>
       <c r="B14" s="37" t="s">
@@ -6327,8 +6326,8 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="213"/>
+    <row r="15" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="219"/>
       <c r="B15" s="37" t="s">
         <v>4</v>
       </c>
@@ -6339,8 +6338,8 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="213"/>
+    <row r="16" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="219"/>
       <c r="B16" s="37" t="s">
         <v>6</v>
       </c>
@@ -6351,8 +6350,8 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="213"/>
+    <row r="17" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="219"/>
       <c r="B17" s="37" t="s">
         <v>46</v>
       </c>
@@ -6363,8 +6362,8 @@
         <v>44441</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="213"/>
+    <row r="18" spans="1:4" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="219"/>
       <c r="B18" s="37" t="s">
         <v>162</v>
       </c>
@@ -6375,33 +6374,33 @@
         <v>44442</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="213"/>
-      <c r="B19" s="218" t="s">
+    <row r="19" spans="1:4" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="219"/>
+      <c r="B19" s="221" t="s">
         <v>227</v>
       </c>
-      <c r="C19" s="220"/>
+      <c r="C19" s="223"/>
       <c r="D19" s="53">
         <v>44446</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="214"/>
-      <c r="B20" s="218" t="s">
+    <row r="20" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="220"/>
+      <c r="B20" s="221" t="s">
         <v>223</v>
       </c>
-      <c r="C20" s="219"/>
+      <c r="C20" s="222"/>
       <c r="D20" s="53">
         <v>44447</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="215"/>
-      <c r="B21" s="216"/>
-      <c r="C21" s="216"/>
-      <c r="D21" s="217"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="214"/>
+      <c r="B21" s="215"/>
+      <c r="C21" s="215"/>
+      <c r="D21" s="216"/>
+    </row>
+    <row r="22" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
         <v>199</v>
       </c>
@@ -6415,43 +6414,38 @@
         <v>44449</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="215"/>
-      <c r="B23" s="216"/>
-      <c r="C23" s="216"/>
-      <c r="D23" s="217"/>
-    </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="222" t="s">
+    <row r="23" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="214"/>
+      <c r="B23" s="215"/>
+      <c r="C23" s="215"/>
+      <c r="D23" s="216"/>
+    </row>
+    <row r="25" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="211" t="s">
         <v>133</v>
       </c>
-      <c r="B25" s="222"/>
-      <c r="C25" s="222"/>
-      <c r="D25" s="222"/>
-    </row>
-    <row r="26" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="223" t="s">
+      <c r="B25" s="211"/>
+      <c r="C25" s="211"/>
+      <c r="D25" s="211"/>
+    </row>
+    <row r="26" spans="1:4" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="212" t="s">
         <v>224</v>
       </c>
-      <c r="B26" s="224"/>
-      <c r="C26" s="224"/>
+      <c r="B26" s="213"/>
+      <c r="C26" s="213"/>
       <c r="D26" s="49"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="223" t="s">
+    <row r="27" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="212" t="s">
         <v>225</v>
       </c>
-      <c r="B27" s="224"/>
-      <c r="C27" s="224"/>
+      <c r="B27" s="213"/>
+      <c r="C27" s="213"/>
       <c r="D27" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A26:C26"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A8:A12"/>
@@ -6463,6 +6457,11 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6471,22 +6470,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E548DC5-A6AA-4309-A55F-3CAC5CFD42AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="52.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
         <v>196</v>
       </c>
@@ -6503,8 +6502,8 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="212" t="s">
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="218" t="s">
         <v>130</v>
       </c>
       <c r="B2" s="37" t="s">
@@ -6520,8 +6519,8 @@
         <v>44403</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="213"/>
+    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="219"/>
       <c r="B3" s="37" t="s">
         <v>4</v>
       </c>
@@ -6535,15 +6534,15 @@
         <v>44411</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="215"/>
-      <c r="B4" s="216"/>
-      <c r="C4" s="216"/>
-      <c r="D4" s="216"/>
-      <c r="E4" s="217"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="212" t="s">
+    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="214"/>
+      <c r="B4" s="215"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="216"/>
+    </row>
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="218" t="s">
         <v>131</v>
       </c>
       <c r="B5" s="37" t="s">
@@ -6559,8 +6558,8 @@
         <v>44414</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="213"/>
+    <row r="6" spans="1:5" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="219"/>
       <c r="B6" s="57" t="s">
         <v>218</v>
       </c>
@@ -6574,8 +6573,8 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="213"/>
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="219"/>
       <c r="B7" s="37" t="s">
         <v>4</v>
       </c>
@@ -6589,8 +6588,8 @@
         <v>44421</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="214"/>
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="220"/>
       <c r="B8" s="37" t="s">
         <v>6</v>
       </c>
@@ -6604,15 +6603,15 @@
         <v>44425</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="215"/>
-      <c r="B9" s="216"/>
-      <c r="C9" s="216"/>
-      <c r="D9" s="216"/>
-      <c r="E9" s="217"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="100" t="s">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="214"/>
+      <c r="B9" s="215"/>
+      <c r="C9" s="215"/>
+      <c r="D9" s="215"/>
+      <c r="E9" s="216"/>
+    </row>
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="111" t="s">
         <v>132</v>
       </c>
       <c r="B10" s="37" t="s">
@@ -6628,8 +6627,8 @@
         <v>44428</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="100"/>
+    <row r="11" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="111"/>
       <c r="B11" s="37" t="s">
         <v>4</v>
       </c>
